--- a/tech/database/db-diagram.xlsx
+++ b/tech/database/db-diagram.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/douglasterc/terc-capital/tech/database/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CC4E57A-B530-5E48-9845-6EB0048DCC3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E04BCBAB-B131-694C-9246-909574AAD13A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="12880" yWindow="760" windowWidth="17360" windowHeight="17860" activeTab="1" xr2:uid="{B515DCDA-2F36-0A46-9A0C-33852D85EA0C}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="67">
   <si>
     <t>SCREENER</t>
   </si>
@@ -237,6 +237,9 @@
   </si>
   <si>
     <t>pairing_stocks</t>
+  </si>
+  <si>
+    <t>POSITIONS</t>
   </si>
 </sst>
 </file>
@@ -419,6 +422,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -434,17 +450,41 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -452,16 +492,16 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -470,29 +510,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -500,25 +522,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -842,32 +845,32 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="2.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="4" spans="8:53" x14ac:dyDescent="0.2">
-      <c r="AG4" s="10" t="s">
+      <c r="AG4" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="AH4" s="11"/>
-      <c r="AI4" s="11"/>
-      <c r="AJ4" s="11"/>
-      <c r="AK4" s="11"/>
-      <c r="AL4" s="11"/>
-      <c r="AM4" s="11"/>
-      <c r="AN4" s="11"/>
-      <c r="AO4" s="12"/>
+      <c r="AH4" s="16"/>
+      <c r="AI4" s="16"/>
+      <c r="AJ4" s="16"/>
+      <c r="AK4" s="16"/>
+      <c r="AL4" s="16"/>
+      <c r="AM4" s="16"/>
+      <c r="AN4" s="16"/>
+      <c r="AO4" s="17"/>
     </row>
     <row r="5" spans="8:53" x14ac:dyDescent="0.2">
-      <c r="AG5" s="13" t="s">
+      <c r="AG5" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="AH5" s="14"/>
-      <c r="AI5" s="15" t="s">
+      <c r="AH5" s="19"/>
+      <c r="AI5" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="AJ5" s="15"/>
-      <c r="AK5" s="15"/>
-      <c r="AL5" s="15"/>
-      <c r="AM5" s="15"/>
-      <c r="AN5" s="15"/>
-      <c r="AO5" s="16"/>
+      <c r="AJ5" s="26"/>
+      <c r="AK5" s="26"/>
+      <c r="AL5" s="26"/>
+      <c r="AM5" s="26"/>
+      <c r="AN5" s="26"/>
+      <c r="AO5" s="27"/>
     </row>
     <row r="6" spans="8:53" x14ac:dyDescent="0.2">
       <c r="X6" s="1"/>
@@ -879,19 +882,19 @@
       <c r="AD6" s="2"/>
       <c r="AE6" s="2"/>
       <c r="AF6" s="2"/>
-      <c r="AG6" s="13" t="s">
+      <c r="AG6" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="AH6" s="14"/>
-      <c r="AI6" s="31" t="s">
+      <c r="AH6" s="19"/>
+      <c r="AI6" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="AJ6" s="31"/>
-      <c r="AK6" s="31"/>
-      <c r="AL6" s="31"/>
-      <c r="AM6" s="31"/>
-      <c r="AN6" s="31"/>
-      <c r="AO6" s="32"/>
+      <c r="AJ6" s="20"/>
+      <c r="AK6" s="20"/>
+      <c r="AL6" s="20"/>
+      <c r="AM6" s="20"/>
+      <c r="AN6" s="20"/>
+      <c r="AO6" s="21"/>
     </row>
     <row r="7" spans="8:53" x14ac:dyDescent="0.2">
       <c r="X7" s="7"/>
@@ -903,19 +906,19 @@
       <c r="AD7" s="8"/>
       <c r="AE7" s="8"/>
       <c r="AF7" s="8"/>
-      <c r="AG7" s="17" t="s">
+      <c r="AG7" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="AH7" s="18"/>
-      <c r="AI7" s="33" t="s">
+      <c r="AH7" s="12"/>
+      <c r="AI7" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="AJ7" s="33"/>
-      <c r="AK7" s="33"/>
-      <c r="AL7" s="33"/>
-      <c r="AM7" s="33"/>
-      <c r="AN7" s="33"/>
-      <c r="AO7" s="34"/>
+      <c r="AJ7" s="22"/>
+      <c r="AK7" s="22"/>
+      <c r="AL7" s="22"/>
+      <c r="AM7" s="22"/>
+      <c r="AN7" s="22"/>
+      <c r="AO7" s="23"/>
     </row>
     <row r="8" spans="8:53" x14ac:dyDescent="0.2">
       <c r="X8" s="7"/>
@@ -930,17 +933,17 @@
       <c r="AK8" s="1"/>
     </row>
     <row r="9" spans="8:53" x14ac:dyDescent="0.2">
-      <c r="H9" s="10" t="s">
+      <c r="H9" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="I9" s="11"/>
-      <c r="J9" s="11"/>
-      <c r="K9" s="11"/>
-      <c r="L9" s="11"/>
-      <c r="M9" s="11"/>
-      <c r="N9" s="11"/>
-      <c r="O9" s="11"/>
-      <c r="P9" s="12"/>
+      <c r="I9" s="16"/>
+      <c r="J9" s="16"/>
+      <c r="K9" s="16"/>
+      <c r="L9" s="16"/>
+      <c r="M9" s="16"/>
+      <c r="N9" s="16"/>
+      <c r="O9" s="16"/>
+      <c r="P9" s="17"/>
       <c r="X9" s="7"/>
       <c r="Y9" s="8"/>
       <c r="Z9" s="8"/>
@@ -953,93 +956,93 @@
       <c r="AK9" s="4"/>
     </row>
     <row r="10" spans="8:53" x14ac:dyDescent="0.2">
-      <c r="H10" s="13" t="s">
+      <c r="H10" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="I10" s="14"/>
-      <c r="J10" s="15" t="s">
+      <c r="I10" s="19"/>
+      <c r="J10" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="K10" s="15"/>
-      <c r="L10" s="15"/>
-      <c r="M10" s="15"/>
-      <c r="N10" s="15"/>
-      <c r="O10" s="15"/>
-      <c r="P10" s="16"/>
-      <c r="T10" s="10" t="s">
+      <c r="K10" s="26"/>
+      <c r="L10" s="26"/>
+      <c r="M10" s="26"/>
+      <c r="N10" s="26"/>
+      <c r="O10" s="26"/>
+      <c r="P10" s="27"/>
+      <c r="T10" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="U10" s="11"/>
-      <c r="V10" s="11"/>
-      <c r="W10" s="11"/>
-      <c r="X10" s="11"/>
-      <c r="Y10" s="11"/>
-      <c r="Z10" s="11"/>
-      <c r="AA10" s="11"/>
-      <c r="AB10" s="12"/>
+      <c r="U10" s="16"/>
+      <c r="V10" s="16"/>
+      <c r="W10" s="16"/>
+      <c r="X10" s="16"/>
+      <c r="Y10" s="16"/>
+      <c r="Z10" s="16"/>
+      <c r="AA10" s="16"/>
+      <c r="AB10" s="17"/>
       <c r="AC10" s="8"/>
       <c r="AD10" s="8"/>
       <c r="AE10" s="8"/>
       <c r="AF10" s="8"/>
-      <c r="AG10" s="10" t="s">
+      <c r="AG10" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="AH10" s="11"/>
-      <c r="AI10" s="11"/>
-      <c r="AJ10" s="11"/>
-      <c r="AK10" s="11"/>
-      <c r="AL10" s="11"/>
-      <c r="AM10" s="11"/>
-      <c r="AN10" s="11"/>
-      <c r="AO10" s="12"/>
+      <c r="AH10" s="16"/>
+      <c r="AI10" s="16"/>
+      <c r="AJ10" s="16"/>
+      <c r="AK10" s="16"/>
+      <c r="AL10" s="16"/>
+      <c r="AM10" s="16"/>
+      <c r="AN10" s="16"/>
+      <c r="AO10" s="17"/>
     </row>
     <row r="11" spans="8:53" x14ac:dyDescent="0.2">
-      <c r="H11" s="17" t="s">
+      <c r="H11" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="I11" s="18"/>
-      <c r="J11" s="33" t="s">
+      <c r="I11" s="12"/>
+      <c r="J11" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="K11" s="33"/>
-      <c r="L11" s="33"/>
-      <c r="M11" s="33"/>
-      <c r="N11" s="33"/>
-      <c r="O11" s="33"/>
-      <c r="P11" s="34"/>
+      <c r="K11" s="22"/>
+      <c r="L11" s="22"/>
+      <c r="M11" s="22"/>
+      <c r="N11" s="22"/>
+      <c r="O11" s="22"/>
+      <c r="P11" s="23"/>
       <c r="Q11" s="1"/>
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
-      <c r="T11" s="17" t="s">
+      <c r="T11" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="U11" s="18"/>
-      <c r="V11" s="33" t="s">
+      <c r="U11" s="12"/>
+      <c r="V11" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="W11" s="33"/>
-      <c r="X11" s="33"/>
-      <c r="Y11" s="33"/>
-      <c r="Z11" s="33"/>
-      <c r="AA11" s="33"/>
-      <c r="AB11" s="34"/>
+      <c r="W11" s="22"/>
+      <c r="X11" s="22"/>
+      <c r="Y11" s="22"/>
+      <c r="Z11" s="22"/>
+      <c r="AA11" s="22"/>
+      <c r="AB11" s="23"/>
       <c r="AC11" s="1"/>
       <c r="AD11" s="2"/>
       <c r="AE11" s="2"/>
       <c r="AF11" s="3"/>
-      <c r="AG11" s="13" t="s">
+      <c r="AG11" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="AH11" s="14"/>
-      <c r="AI11" s="31" t="s">
+      <c r="AH11" s="19"/>
+      <c r="AI11" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="AJ11" s="31"/>
-      <c r="AK11" s="31"/>
-      <c r="AL11" s="31"/>
-      <c r="AM11" s="31"/>
-      <c r="AN11" s="31"/>
-      <c r="AO11" s="32"/>
+      <c r="AJ11" s="20"/>
+      <c r="AK11" s="20"/>
+      <c r="AL11" s="20"/>
+      <c r="AM11" s="20"/>
+      <c r="AN11" s="20"/>
+      <c r="AO11" s="21"/>
     </row>
     <row r="12" spans="8:53" x14ac:dyDescent="0.2">
       <c r="X12" s="1"/>
@@ -1047,19 +1050,19 @@
       <c r="AD12" s="8"/>
       <c r="AE12" s="8"/>
       <c r="AF12" s="8"/>
-      <c r="AG12" s="17" t="s">
+      <c r="AG12" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="AH12" s="18"/>
-      <c r="AI12" s="27" t="s">
+      <c r="AH12" s="12"/>
+      <c r="AI12" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="AJ12" s="27"/>
-      <c r="AK12" s="27"/>
-      <c r="AL12" s="27"/>
-      <c r="AM12" s="27"/>
-      <c r="AN12" s="27"/>
-      <c r="AO12" s="28"/>
+      <c r="AJ12" s="13"/>
+      <c r="AK12" s="13"/>
+      <c r="AL12" s="13"/>
+      <c r="AM12" s="13"/>
+      <c r="AN12" s="13"/>
+      <c r="AO12" s="14"/>
     </row>
     <row r="13" spans="8:53" x14ac:dyDescent="0.2">
       <c r="X13" s="7"/>
@@ -1088,135 +1091,135 @@
       <c r="AL14" s="8"/>
     </row>
     <row r="15" spans="8:53" x14ac:dyDescent="0.2">
-      <c r="T15" s="10" t="s">
+      <c r="T15" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="U15" s="11"/>
-      <c r="V15" s="11"/>
-      <c r="W15" s="11"/>
-      <c r="X15" s="11"/>
-      <c r="Y15" s="11"/>
-      <c r="Z15" s="11"/>
-      <c r="AA15" s="11"/>
-      <c r="AB15" s="12"/>
-      <c r="AG15" s="10" t="s">
+      <c r="U15" s="16"/>
+      <c r="V15" s="16"/>
+      <c r="W15" s="16"/>
+      <c r="X15" s="16"/>
+      <c r="Y15" s="16"/>
+      <c r="Z15" s="16"/>
+      <c r="AA15" s="16"/>
+      <c r="AB15" s="17"/>
+      <c r="AG15" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="AH15" s="11"/>
-      <c r="AI15" s="11"/>
-      <c r="AJ15" s="11"/>
-      <c r="AK15" s="11"/>
-      <c r="AL15" s="11"/>
-      <c r="AM15" s="11"/>
-      <c r="AN15" s="11"/>
-      <c r="AO15" s="12"/>
-      <c r="AS15" s="10" t="s">
+      <c r="AH15" s="16"/>
+      <c r="AI15" s="16"/>
+      <c r="AJ15" s="16"/>
+      <c r="AK15" s="16"/>
+      <c r="AL15" s="16"/>
+      <c r="AM15" s="16"/>
+      <c r="AN15" s="16"/>
+      <c r="AO15" s="17"/>
+      <c r="AS15" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="AT15" s="11"/>
-      <c r="AU15" s="11"/>
-      <c r="AV15" s="11"/>
-      <c r="AW15" s="11"/>
-      <c r="AX15" s="11"/>
-      <c r="AY15" s="11"/>
-      <c r="AZ15" s="11"/>
-      <c r="BA15" s="12"/>
+      <c r="AT15" s="16"/>
+      <c r="AU15" s="16"/>
+      <c r="AV15" s="16"/>
+      <c r="AW15" s="16"/>
+      <c r="AX15" s="16"/>
+      <c r="AY15" s="16"/>
+      <c r="AZ15" s="16"/>
+      <c r="BA15" s="17"/>
     </row>
     <row r="16" spans="8:53" x14ac:dyDescent="0.2">
-      <c r="T16" s="13" t="s">
+      <c r="T16" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="U16" s="14"/>
-      <c r="V16" s="31" t="s">
+      <c r="U16" s="19"/>
+      <c r="V16" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="W16" s="31"/>
-      <c r="X16" s="31"/>
-      <c r="Y16" s="31"/>
-      <c r="Z16" s="31"/>
-      <c r="AA16" s="31"/>
-      <c r="AB16" s="32"/>
+      <c r="W16" s="20"/>
+      <c r="X16" s="20"/>
+      <c r="Y16" s="20"/>
+      <c r="Z16" s="20"/>
+      <c r="AA16" s="20"/>
+      <c r="AB16" s="21"/>
       <c r="AC16" s="1"/>
       <c r="AD16" s="2"/>
       <c r="AE16" s="2"/>
       <c r="AF16" s="3"/>
-      <c r="AG16" s="17" t="s">
+      <c r="AG16" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="AH16" s="18"/>
-      <c r="AI16" s="27" t="s">
+      <c r="AH16" s="12"/>
+      <c r="AI16" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="AJ16" s="27"/>
-      <c r="AK16" s="27"/>
-      <c r="AL16" s="27"/>
-      <c r="AM16" s="27"/>
-      <c r="AN16" s="27"/>
-      <c r="AO16" s="28"/>
+      <c r="AJ16" s="13"/>
+      <c r="AK16" s="13"/>
+      <c r="AL16" s="13"/>
+      <c r="AM16" s="13"/>
+      <c r="AN16" s="13"/>
+      <c r="AO16" s="14"/>
       <c r="AP16" s="1"/>
       <c r="AQ16" s="2"/>
       <c r="AR16" s="3"/>
-      <c r="AS16" s="13" t="s">
+      <c r="AS16" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="AT16" s="14"/>
-      <c r="AU16" s="29" t="s">
+      <c r="AT16" s="19"/>
+      <c r="AU16" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="AV16" s="29"/>
-      <c r="AW16" s="29"/>
-      <c r="AX16" s="29"/>
-      <c r="AY16" s="29"/>
-      <c r="AZ16" s="29"/>
-      <c r="BA16" s="30"/>
+      <c r="AV16" s="24"/>
+      <c r="AW16" s="24"/>
+      <c r="AX16" s="24"/>
+      <c r="AY16" s="24"/>
+      <c r="AZ16" s="24"/>
+      <c r="BA16" s="25"/>
     </row>
     <row r="17" spans="11:53" x14ac:dyDescent="0.2">
-      <c r="T17" s="13" t="s">
+      <c r="T17" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="U17" s="14"/>
-      <c r="V17" s="29" t="s">
+      <c r="U17" s="19"/>
+      <c r="V17" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="W17" s="29"/>
-      <c r="X17" s="29"/>
-      <c r="Y17" s="29"/>
-      <c r="Z17" s="29"/>
-      <c r="AA17" s="29"/>
-      <c r="AB17" s="30"/>
+      <c r="W17" s="24"/>
+      <c r="X17" s="24"/>
+      <c r="Y17" s="24"/>
+      <c r="Z17" s="24"/>
+      <c r="AA17" s="24"/>
+      <c r="AB17" s="25"/>
       <c r="AK17" s="1"/>
-      <c r="AS17" s="17" t="s">
+      <c r="AS17" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="AT17" s="18"/>
-      <c r="AU17" s="27" t="s">
+      <c r="AT17" s="12"/>
+      <c r="AU17" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="AV17" s="27"/>
-      <c r="AW17" s="27"/>
-      <c r="AX17" s="27"/>
-      <c r="AY17" s="27"/>
-      <c r="AZ17" s="27"/>
-      <c r="BA17" s="28"/>
+      <c r="AV17" s="13"/>
+      <c r="AW17" s="13"/>
+      <c r="AX17" s="13"/>
+      <c r="AY17" s="13"/>
+      <c r="AZ17" s="13"/>
+      <c r="BA17" s="14"/>
     </row>
     <row r="18" spans="11:53" x14ac:dyDescent="0.2">
       <c r="P18" s="1"/>
       <c r="Q18" s="2"/>
       <c r="R18" s="2"/>
       <c r="S18" s="3"/>
-      <c r="T18" s="17" t="s">
+      <c r="T18" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="U18" s="18"/>
-      <c r="V18" s="33" t="s">
+      <c r="U18" s="12"/>
+      <c r="V18" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="W18" s="33"/>
-      <c r="X18" s="33"/>
-      <c r="Y18" s="33"/>
-      <c r="Z18" s="33"/>
-      <c r="AA18" s="33"/>
-      <c r="AB18" s="34"/>
+      <c r="W18" s="22"/>
+      <c r="X18" s="22"/>
+      <c r="Y18" s="22"/>
+      <c r="Z18" s="22"/>
+      <c r="AA18" s="22"/>
+      <c r="AB18" s="23"/>
       <c r="AC18" s="2"/>
       <c r="AD18" s="3"/>
       <c r="AK18" s="7"/>
@@ -1241,17 +1244,17 @@
       <c r="AD20" s="9"/>
       <c r="AE20" s="4"/>
       <c r="AF20" s="5"/>
-      <c r="AG20" s="10" t="s">
+      <c r="AG20" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="AH20" s="11"/>
-      <c r="AI20" s="11"/>
-      <c r="AJ20" s="11"/>
-      <c r="AK20" s="11"/>
-      <c r="AL20" s="11"/>
-      <c r="AM20" s="11"/>
-      <c r="AN20" s="11"/>
-      <c r="AO20" s="12"/>
+      <c r="AH20" s="16"/>
+      <c r="AI20" s="16"/>
+      <c r="AJ20" s="16"/>
+      <c r="AK20" s="16"/>
+      <c r="AL20" s="16"/>
+      <c r="AM20" s="16"/>
+      <c r="AN20" s="16"/>
+      <c r="AO20" s="17"/>
     </row>
     <row r="21" spans="11:53" x14ac:dyDescent="0.2">
       <c r="P21" s="4"/>
@@ -1260,65 +1263,65 @@
       <c r="AA21" s="8"/>
       <c r="AB21" s="8"/>
       <c r="AC21" s="8"/>
-      <c r="AG21" s="13" t="s">
+      <c r="AG21" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="AH21" s="14"/>
-      <c r="AI21" s="29" t="s">
+      <c r="AH21" s="19"/>
+      <c r="AI21" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="AJ21" s="29"/>
-      <c r="AK21" s="29"/>
-      <c r="AL21" s="29"/>
-      <c r="AM21" s="29"/>
-      <c r="AN21" s="29"/>
-      <c r="AO21" s="30"/>
+      <c r="AJ21" s="24"/>
+      <c r="AK21" s="24"/>
+      <c r="AL21" s="24"/>
+      <c r="AM21" s="24"/>
+      <c r="AN21" s="24"/>
+      <c r="AO21" s="25"/>
     </row>
     <row r="22" spans="11:53" x14ac:dyDescent="0.2">
-      <c r="K22" s="10" t="s">
+      <c r="K22" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="L22" s="11"/>
-      <c r="M22" s="11"/>
-      <c r="N22" s="11"/>
-      <c r="O22" s="11"/>
-      <c r="P22" s="11"/>
-      <c r="Q22" s="11"/>
-      <c r="R22" s="11"/>
-      <c r="S22" s="12"/>
+      <c r="L22" s="16"/>
+      <c r="M22" s="16"/>
+      <c r="N22" s="16"/>
+      <c r="O22" s="16"/>
+      <c r="P22" s="16"/>
+      <c r="Q22" s="16"/>
+      <c r="R22" s="16"/>
+      <c r="S22" s="17"/>
       <c r="Y22" s="8"/>
       <c r="Z22" s="8"/>
       <c r="AA22" s="8"/>
       <c r="AB22" s="8"/>
       <c r="AC22" s="8"/>
-      <c r="AG22" s="17" t="s">
+      <c r="AG22" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="AH22" s="18"/>
-      <c r="AI22" s="27" t="s">
+      <c r="AH22" s="12"/>
+      <c r="AI22" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="AJ22" s="27"/>
-      <c r="AK22" s="27"/>
-      <c r="AL22" s="27"/>
-      <c r="AM22" s="27"/>
-      <c r="AN22" s="27"/>
-      <c r="AO22" s="28"/>
+      <c r="AJ22" s="13"/>
+      <c r="AK22" s="13"/>
+      <c r="AL22" s="13"/>
+      <c r="AM22" s="13"/>
+      <c r="AN22" s="13"/>
+      <c r="AO22" s="14"/>
     </row>
     <row r="23" spans="11:53" x14ac:dyDescent="0.2">
-      <c r="K23" s="13" t="s">
+      <c r="K23" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="L23" s="14"/>
-      <c r="M23" s="21" t="s">
+      <c r="L23" s="19"/>
+      <c r="M23" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="N23" s="21"/>
-      <c r="O23" s="21"/>
-      <c r="P23" s="21"/>
-      <c r="Q23" s="21"/>
-      <c r="R23" s="21"/>
-      <c r="S23" s="22"/>
+      <c r="N23" s="28"/>
+      <c r="O23" s="28"/>
+      <c r="P23" s="28"/>
+      <c r="Q23" s="28"/>
+      <c r="R23" s="28"/>
+      <c r="S23" s="29"/>
       <c r="Y23" s="8"/>
       <c r="Z23" s="8"/>
       <c r="AA23" s="8"/>
@@ -1326,19 +1329,19 @@
       <c r="AC23" s="8"/>
     </row>
     <row r="24" spans="11:53" x14ac:dyDescent="0.2">
-      <c r="K24" s="17" t="s">
+      <c r="K24" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="L24" s="18"/>
-      <c r="M24" s="23" t="s">
+      <c r="L24" s="12"/>
+      <c r="M24" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="N24" s="23"/>
-      <c r="O24" s="23"/>
-      <c r="P24" s="23"/>
-      <c r="Q24" s="23"/>
-      <c r="R24" s="23"/>
-      <c r="S24" s="24"/>
+      <c r="N24" s="30"/>
+      <c r="O24" s="30"/>
+      <c r="P24" s="30"/>
+      <c r="Q24" s="30"/>
+      <c r="R24" s="30"/>
+      <c r="S24" s="31"/>
       <c r="T24" s="1"/>
       <c r="U24" s="2"/>
       <c r="V24" s="3"/>
@@ -1364,100 +1367,100 @@
       <c r="V26" s="9"/>
     </row>
     <row r="27" spans="11:53" x14ac:dyDescent="0.2">
-      <c r="R27" s="10" t="s">
+      <c r="R27" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="S27" s="11"/>
-      <c r="T27" s="11"/>
-      <c r="U27" s="11"/>
-      <c r="V27" s="11"/>
-      <c r="W27" s="11"/>
-      <c r="X27" s="11"/>
-      <c r="Y27" s="11"/>
-      <c r="Z27" s="12"/>
+      <c r="S27" s="16"/>
+      <c r="T27" s="16"/>
+      <c r="U27" s="16"/>
+      <c r="V27" s="16"/>
+      <c r="W27" s="16"/>
+      <c r="X27" s="16"/>
+      <c r="Y27" s="16"/>
+      <c r="Z27" s="17"/>
     </row>
     <row r="28" spans="11:53" x14ac:dyDescent="0.2">
-      <c r="R28" s="13" t="s">
+      <c r="R28" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="S28" s="14"/>
-      <c r="T28" s="15" t="s">
+      <c r="S28" s="19"/>
+      <c r="T28" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="U28" s="15"/>
-      <c r="V28" s="15"/>
-      <c r="W28" s="15"/>
-      <c r="X28" s="15"/>
-      <c r="Y28" s="15"/>
-      <c r="Z28" s="16"/>
+      <c r="U28" s="26"/>
+      <c r="V28" s="26"/>
+      <c r="W28" s="26"/>
+      <c r="X28" s="26"/>
+      <c r="Y28" s="26"/>
+      <c r="Z28" s="27"/>
     </row>
     <row r="29" spans="11:53" x14ac:dyDescent="0.2">
-      <c r="R29" s="17" t="s">
+      <c r="R29" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="S29" s="18"/>
-      <c r="T29" s="19" t="s">
+      <c r="S29" s="12"/>
+      <c r="T29" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="U29" s="19"/>
-      <c r="V29" s="19"/>
-      <c r="W29" s="19"/>
-      <c r="X29" s="19"/>
-      <c r="Y29" s="19"/>
-      <c r="Z29" s="20"/>
+      <c r="U29" s="32"/>
+      <c r="V29" s="32"/>
+      <c r="W29" s="32"/>
+      <c r="X29" s="32"/>
+      <c r="Y29" s="32"/>
+      <c r="Z29" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="50">
-    <mergeCell ref="AS17:AT17"/>
-    <mergeCell ref="AU17:BA17"/>
-    <mergeCell ref="AG10:AO10"/>
-    <mergeCell ref="AG11:AH11"/>
-    <mergeCell ref="AI11:AO11"/>
+    <mergeCell ref="R27:Z27"/>
+    <mergeCell ref="R28:S28"/>
+    <mergeCell ref="T28:Z28"/>
+    <mergeCell ref="R29:S29"/>
+    <mergeCell ref="T29:Z29"/>
+    <mergeCell ref="K22:S22"/>
+    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="M23:S23"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="M24:S24"/>
+    <mergeCell ref="T17:U17"/>
+    <mergeCell ref="V17:AB17"/>
+    <mergeCell ref="AG21:AH21"/>
+    <mergeCell ref="AI21:AO21"/>
+    <mergeCell ref="AG22:AH22"/>
+    <mergeCell ref="AI22:AO22"/>
+    <mergeCell ref="T18:U18"/>
+    <mergeCell ref="V18:AB18"/>
+    <mergeCell ref="AG20:AO20"/>
+    <mergeCell ref="AG4:AO4"/>
+    <mergeCell ref="AG5:AH5"/>
+    <mergeCell ref="AI5:AO5"/>
+    <mergeCell ref="AG12:AH12"/>
+    <mergeCell ref="AI12:AO12"/>
+    <mergeCell ref="AG6:AH6"/>
+    <mergeCell ref="AI6:AO6"/>
+    <mergeCell ref="AG7:AH7"/>
+    <mergeCell ref="AI7:AO7"/>
+    <mergeCell ref="H9:P9"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="J10:P10"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="J11:P11"/>
     <mergeCell ref="T11:U11"/>
     <mergeCell ref="V11:AB11"/>
     <mergeCell ref="T10:AB10"/>
     <mergeCell ref="AS15:BA15"/>
     <mergeCell ref="AS16:AT16"/>
     <mergeCell ref="AU16:BA16"/>
-    <mergeCell ref="H9:P9"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="J10:P10"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="J11:P11"/>
-    <mergeCell ref="AG4:AO4"/>
-    <mergeCell ref="AG5:AH5"/>
-    <mergeCell ref="AI5:AO5"/>
-    <mergeCell ref="AG12:AH12"/>
-    <mergeCell ref="AI12:AO12"/>
     <mergeCell ref="T15:AB15"/>
     <mergeCell ref="T16:U16"/>
     <mergeCell ref="V16:AB16"/>
-    <mergeCell ref="T17:U17"/>
-    <mergeCell ref="V17:AB17"/>
-    <mergeCell ref="AG21:AH21"/>
-    <mergeCell ref="AI21:AO21"/>
-    <mergeCell ref="AG22:AH22"/>
-    <mergeCell ref="AI22:AO22"/>
-    <mergeCell ref="AG6:AH6"/>
-    <mergeCell ref="AI6:AO6"/>
-    <mergeCell ref="AG7:AH7"/>
-    <mergeCell ref="AI7:AO7"/>
     <mergeCell ref="AG15:AO15"/>
     <mergeCell ref="AG16:AH16"/>
     <mergeCell ref="AI16:AO16"/>
-    <mergeCell ref="T18:U18"/>
-    <mergeCell ref="V18:AB18"/>
-    <mergeCell ref="AG20:AO20"/>
-    <mergeCell ref="K22:S22"/>
-    <mergeCell ref="K23:L23"/>
-    <mergeCell ref="M23:S23"/>
-    <mergeCell ref="K24:L24"/>
-    <mergeCell ref="M24:S24"/>
-    <mergeCell ref="R27:Z27"/>
-    <mergeCell ref="R28:S28"/>
-    <mergeCell ref="T28:Z28"/>
-    <mergeCell ref="R29:S29"/>
-    <mergeCell ref="T29:Z29"/>
+    <mergeCell ref="AS17:AT17"/>
+    <mergeCell ref="AU17:BA17"/>
+    <mergeCell ref="AG10:AO10"/>
+    <mergeCell ref="AG11:AH11"/>
+    <mergeCell ref="AI11:AO11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="73" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -1468,247 +1471,247 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1674C6F6-76D7-7344-A682-83CC8F31F6CD}">
   <dimension ref="C3:AQ37"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31:K31"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="AU15" sqref="AU15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="2.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="3" spans="3:43" x14ac:dyDescent="0.2">
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11"/>
-      <c r="J3" s="11"/>
-      <c r="K3" s="12"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="16"/>
+      <c r="J3" s="16"/>
+      <c r="K3" s="17"/>
     </row>
     <row r="4" spans="3:43" x14ac:dyDescent="0.2">
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="14"/>
-      <c r="E4" s="25" t="s">
+      <c r="D4" s="19"/>
+      <c r="E4" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="25"/>
-      <c r="G4" s="25"/>
-      <c r="H4" s="25"/>
-      <c r="I4" s="25"/>
-      <c r="J4" s="25"/>
-      <c r="K4" s="26"/>
+      <c r="F4" s="38"/>
+      <c r="G4" s="38"/>
+      <c r="H4" s="38"/>
+      <c r="I4" s="38"/>
+      <c r="J4" s="38"/>
+      <c r="K4" s="39"/>
     </row>
     <row r="5" spans="3:43" x14ac:dyDescent="0.2">
-      <c r="C5" s="13"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="40" t="s">
+      <c r="C5" s="18"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="F5" s="40"/>
-      <c r="G5" s="40"/>
-      <c r="H5" s="40"/>
-      <c r="I5" s="40"/>
-      <c r="J5" s="40"/>
-      <c r="K5" s="42"/>
-      <c r="N5" s="10" t="s">
+      <c r="F5" s="34"/>
+      <c r="G5" s="34"/>
+      <c r="H5" s="34"/>
+      <c r="I5" s="34"/>
+      <c r="J5" s="34"/>
+      <c r="K5" s="35"/>
+      <c r="N5" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="O5" s="11"/>
-      <c r="P5" s="11"/>
-      <c r="Q5" s="11"/>
-      <c r="R5" s="11"/>
-      <c r="S5" s="11"/>
-      <c r="T5" s="11"/>
-      <c r="U5" s="11"/>
-      <c r="V5" s="12"/>
+      <c r="O5" s="16"/>
+      <c r="P5" s="16"/>
+      <c r="Q5" s="16"/>
+      <c r="R5" s="16"/>
+      <c r="S5" s="16"/>
+      <c r="T5" s="16"/>
+      <c r="U5" s="16"/>
+      <c r="V5" s="17"/>
     </row>
     <row r="6" spans="3:43" x14ac:dyDescent="0.2">
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="14"/>
-      <c r="E6" s="40" t="s">
+      <c r="D6" s="19"/>
+      <c r="E6" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="F6" s="40"/>
-      <c r="G6" s="40"/>
-      <c r="H6" s="40"/>
-      <c r="I6" s="40"/>
-      <c r="J6" s="40"/>
-      <c r="K6" s="42"/>
-      <c r="N6" s="13" t="s">
+      <c r="F6" s="34"/>
+      <c r="G6" s="34"/>
+      <c r="H6" s="34"/>
+      <c r="I6" s="34"/>
+      <c r="J6" s="34"/>
+      <c r="K6" s="35"/>
+      <c r="N6" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="O6" s="14"/>
-      <c r="P6" s="25" t="s">
+      <c r="O6" s="19"/>
+      <c r="P6" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="Q6" s="25"/>
-      <c r="R6" s="25"/>
-      <c r="S6" s="25"/>
-      <c r="T6" s="25"/>
-      <c r="U6" s="25"/>
-      <c r="V6" s="26"/>
+      <c r="Q6" s="38"/>
+      <c r="R6" s="38"/>
+      <c r="S6" s="38"/>
+      <c r="T6" s="38"/>
+      <c r="U6" s="38"/>
+      <c r="V6" s="39"/>
       <c r="W6" s="8"/>
       <c r="X6" s="8"/>
-      <c r="Y6" s="10" t="s">
+      <c r="Y6" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="Z6" s="11"/>
-      <c r="AA6" s="11"/>
-      <c r="AB6" s="11"/>
-      <c r="AC6" s="11"/>
-      <c r="AD6" s="11"/>
-      <c r="AE6" s="11"/>
-      <c r="AF6" s="11"/>
-      <c r="AG6" s="12"/>
+      <c r="Z6" s="16"/>
+      <c r="AA6" s="16"/>
+      <c r="AB6" s="16"/>
+      <c r="AC6" s="16"/>
+      <c r="AD6" s="16"/>
+      <c r="AE6" s="16"/>
+      <c r="AF6" s="16"/>
+      <c r="AG6" s="17"/>
       <c r="AH6" s="8"/>
     </row>
     <row r="7" spans="3:43" x14ac:dyDescent="0.2">
-      <c r="C7" s="13"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="40" t="s">
+      <c r="C7" s="18"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="F7" s="40"/>
-      <c r="G7" s="40"/>
-      <c r="H7" s="40"/>
-      <c r="I7" s="40"/>
-      <c r="J7" s="40"/>
-      <c r="K7" s="42"/>
-      <c r="N7" s="13"/>
-      <c r="O7" s="14"/>
-      <c r="P7" s="40" t="s">
+      <c r="F7" s="34"/>
+      <c r="G7" s="34"/>
+      <c r="H7" s="34"/>
+      <c r="I7" s="34"/>
+      <c r="J7" s="34"/>
+      <c r="K7" s="35"/>
+      <c r="N7" s="18"/>
+      <c r="O7" s="19"/>
+      <c r="P7" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="Q7" s="40"/>
-      <c r="R7" s="40"/>
-      <c r="S7" s="40"/>
-      <c r="T7" s="40"/>
-      <c r="U7" s="40"/>
-      <c r="V7" s="42"/>
+      <c r="Q7" s="34"/>
+      <c r="R7" s="34"/>
+      <c r="S7" s="34"/>
+      <c r="T7" s="34"/>
+      <c r="U7" s="34"/>
+      <c r="V7" s="35"/>
       <c r="W7" s="8"/>
       <c r="X7" s="8"/>
-      <c r="Y7" s="13" t="s">
+      <c r="Y7" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="Z7" s="14"/>
-      <c r="AA7" s="25" t="s">
+      <c r="Z7" s="19"/>
+      <c r="AA7" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="AB7" s="25"/>
-      <c r="AC7" s="25"/>
-      <c r="AD7" s="25"/>
-      <c r="AE7" s="25"/>
-      <c r="AF7" s="25"/>
-      <c r="AG7" s="26"/>
+      <c r="AB7" s="38"/>
+      <c r="AC7" s="38"/>
+      <c r="AD7" s="38"/>
+      <c r="AE7" s="38"/>
+      <c r="AF7" s="38"/>
+      <c r="AG7" s="39"/>
       <c r="AH7" s="8"/>
     </row>
     <row r="8" spans="3:43" x14ac:dyDescent="0.2">
-      <c r="C8" s="13"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="40" t="s">
+      <c r="C8" s="18"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="F8" s="40"/>
-      <c r="G8" s="40"/>
-      <c r="H8" s="40"/>
-      <c r="I8" s="40"/>
-      <c r="J8" s="40"/>
-      <c r="K8" s="42"/>
+      <c r="F8" s="34"/>
+      <c r="G8" s="34"/>
+      <c r="H8" s="34"/>
+      <c r="I8" s="34"/>
+      <c r="J8" s="34"/>
+      <c r="K8" s="35"/>
       <c r="L8" s="1"/>
       <c r="M8" s="2"/>
-      <c r="N8" s="13"/>
-      <c r="O8" s="14"/>
-      <c r="P8" s="40" t="s">
+      <c r="N8" s="18"/>
+      <c r="O8" s="19"/>
+      <c r="P8" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="Q8" s="40"/>
-      <c r="R8" s="40"/>
-      <c r="S8" s="40"/>
-      <c r="T8" s="40"/>
-      <c r="U8" s="40"/>
-      <c r="V8" s="42"/>
+      <c r="Q8" s="34"/>
+      <c r="R8" s="34"/>
+      <c r="S8" s="34"/>
+      <c r="T8" s="34"/>
+      <c r="U8" s="34"/>
+      <c r="V8" s="35"/>
       <c r="W8" s="1"/>
       <c r="X8" s="3"/>
-      <c r="Y8" s="13"/>
-      <c r="Z8" s="14"/>
-      <c r="AA8" s="40" t="s">
+      <c r="Y8" s="18"/>
+      <c r="Z8" s="19"/>
+      <c r="AA8" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="AB8" s="40"/>
-      <c r="AC8" s="40"/>
-      <c r="AD8" s="40"/>
-      <c r="AE8" s="40"/>
-      <c r="AF8" s="40"/>
-      <c r="AG8" s="42"/>
+      <c r="AB8" s="34"/>
+      <c r="AC8" s="34"/>
+      <c r="AD8" s="34"/>
+      <c r="AE8" s="34"/>
+      <c r="AF8" s="34"/>
+      <c r="AG8" s="35"/>
       <c r="AH8" s="8"/>
     </row>
     <row r="9" spans="3:43" x14ac:dyDescent="0.2">
-      <c r="C9" s="13"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="40" t="s">
+      <c r="C9" s="18"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="F9" s="40"/>
-      <c r="G9" s="40"/>
-      <c r="H9" s="40"/>
-      <c r="I9" s="40"/>
-      <c r="J9" s="40"/>
-      <c r="K9" s="42"/>
-      <c r="N9" s="13"/>
-      <c r="O9" s="14"/>
-      <c r="P9" s="40" t="s">
+      <c r="F9" s="34"/>
+      <c r="G9" s="34"/>
+      <c r="H9" s="34"/>
+      <c r="I9" s="34"/>
+      <c r="J9" s="34"/>
+      <c r="K9" s="35"/>
+      <c r="N9" s="18"/>
+      <c r="O9" s="19"/>
+      <c r="P9" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="Q9" s="40"/>
-      <c r="R9" s="40"/>
-      <c r="S9" s="40"/>
-      <c r="T9" s="40"/>
-      <c r="U9" s="40"/>
-      <c r="V9" s="42"/>
+      <c r="Q9" s="34"/>
+      <c r="R9" s="34"/>
+      <c r="S9" s="34"/>
+      <c r="T9" s="34"/>
+      <c r="U9" s="34"/>
+      <c r="V9" s="35"/>
       <c r="W9" s="8"/>
       <c r="X9" s="8"/>
-      <c r="Y9" s="17"/>
-      <c r="Z9" s="18"/>
-      <c r="AA9" s="37" t="s">
+      <c r="Y9" s="11"/>
+      <c r="Z9" s="12"/>
+      <c r="AA9" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="AB9" s="37"/>
-      <c r="AC9" s="37"/>
-      <c r="AD9" s="37"/>
-      <c r="AE9" s="37"/>
-      <c r="AF9" s="37"/>
-      <c r="AG9" s="38"/>
+      <c r="AB9" s="36"/>
+      <c r="AC9" s="36"/>
+      <c r="AD9" s="36"/>
+      <c r="AE9" s="36"/>
+      <c r="AF9" s="36"/>
+      <c r="AG9" s="37"/>
       <c r="AH9" s="8"/>
     </row>
     <row r="10" spans="3:43" x14ac:dyDescent="0.2">
-      <c r="C10" s="13"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="40" t="s">
+      <c r="C10" s="18"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="F10" s="40"/>
-      <c r="G10" s="40"/>
-      <c r="H10" s="40"/>
-      <c r="I10" s="40"/>
-      <c r="J10" s="40"/>
-      <c r="K10" s="42"/>
-      <c r="N10" s="13"/>
-      <c r="O10" s="14"/>
-      <c r="P10" s="40" t="s">
+      <c r="F10" s="34"/>
+      <c r="G10" s="34"/>
+      <c r="H10" s="34"/>
+      <c r="I10" s="34"/>
+      <c r="J10" s="34"/>
+      <c r="K10" s="35"/>
+      <c r="N10" s="18"/>
+      <c r="O10" s="19"/>
+      <c r="P10" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="Q10" s="40"/>
-      <c r="R10" s="40"/>
-      <c r="S10" s="40"/>
-      <c r="T10" s="40"/>
-      <c r="U10" s="40"/>
-      <c r="V10" s="42"/>
+      <c r="Q10" s="34"/>
+      <c r="R10" s="34"/>
+      <c r="S10" s="34"/>
+      <c r="T10" s="34"/>
+      <c r="U10" s="34"/>
+      <c r="V10" s="35"/>
       <c r="W10" s="8"/>
       <c r="X10" s="8"/>
       <c r="Y10" s="8"/>
@@ -1723,28 +1726,28 @@
       <c r="AH10" s="8"/>
     </row>
     <row r="11" spans="3:43" x14ac:dyDescent="0.2">
-      <c r="C11" s="13"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="40" t="s">
+      <c r="C11" s="18"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="F11" s="40"/>
-      <c r="G11" s="40"/>
-      <c r="H11" s="40"/>
-      <c r="I11" s="40"/>
-      <c r="J11" s="40"/>
-      <c r="K11" s="42"/>
-      <c r="N11" s="17"/>
-      <c r="O11" s="18"/>
-      <c r="P11" s="37" t="s">
+      <c r="F11" s="34"/>
+      <c r="G11" s="34"/>
+      <c r="H11" s="34"/>
+      <c r="I11" s="34"/>
+      <c r="J11" s="34"/>
+      <c r="K11" s="35"/>
+      <c r="N11" s="11"/>
+      <c r="O11" s="12"/>
+      <c r="P11" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="Q11" s="37"/>
-      <c r="R11" s="37"/>
-      <c r="S11" s="37"/>
-      <c r="T11" s="37"/>
-      <c r="U11" s="37"/>
-      <c r="V11" s="38"/>
+      <c r="Q11" s="36"/>
+      <c r="R11" s="36"/>
+      <c r="S11" s="36"/>
+      <c r="T11" s="36"/>
+      <c r="U11" s="36"/>
+      <c r="V11" s="37"/>
       <c r="W11" s="8"/>
       <c r="X11" s="8"/>
       <c r="Y11" s="8"/>
@@ -1759,147 +1762,147 @@
       <c r="AH11" s="8"/>
     </row>
     <row r="12" spans="3:43" x14ac:dyDescent="0.2">
-      <c r="C12" s="13"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="40" t="s">
+      <c r="C12" s="18"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="F12" s="40"/>
-      <c r="G12" s="40"/>
-      <c r="H12" s="40"/>
-      <c r="I12" s="40"/>
-      <c r="J12" s="40"/>
-      <c r="K12" s="42"/>
+      <c r="F12" s="34"/>
+      <c r="G12" s="34"/>
+      <c r="H12" s="34"/>
+      <c r="I12" s="34"/>
+      <c r="J12" s="34"/>
+      <c r="K12" s="35"/>
       <c r="R12" s="1"/>
-      <c r="U12" s="43"/>
+      <c r="U12" s="10"/>
       <c r="AA12" s="4"/>
-      <c r="AE12" s="10" t="s">
+      <c r="AE12" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="AF12" s="11"/>
-      <c r="AG12" s="11"/>
-      <c r="AH12" s="11"/>
-      <c r="AI12" s="11"/>
-      <c r="AJ12" s="11"/>
-      <c r="AK12" s="11"/>
-      <c r="AL12" s="11"/>
-      <c r="AM12" s="12"/>
+      <c r="AF12" s="16"/>
+      <c r="AG12" s="16"/>
+      <c r="AH12" s="16"/>
+      <c r="AI12" s="16"/>
+      <c r="AJ12" s="16"/>
+      <c r="AK12" s="16"/>
+      <c r="AL12" s="16"/>
+      <c r="AM12" s="17"/>
     </row>
     <row r="13" spans="3:43" x14ac:dyDescent="0.2">
-      <c r="C13" s="13"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="40" t="s">
+      <c r="C13" s="18"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="F13" s="40"/>
-      <c r="G13" s="40"/>
-      <c r="H13" s="40"/>
-      <c r="I13" s="40"/>
-      <c r="J13" s="40"/>
-      <c r="K13" s="42"/>
+      <c r="F13" s="34"/>
+      <c r="G13" s="34"/>
+      <c r="H13" s="34"/>
+      <c r="I13" s="34"/>
+      <c r="J13" s="34"/>
+      <c r="K13" s="35"/>
       <c r="R13" s="7"/>
-      <c r="T13" s="10" t="s">
+      <c r="T13" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="U13" s="11"/>
-      <c r="V13" s="11"/>
-      <c r="W13" s="11"/>
-      <c r="X13" s="11"/>
-      <c r="Y13" s="11"/>
-      <c r="Z13" s="11"/>
-      <c r="AA13" s="11"/>
-      <c r="AB13" s="12"/>
-      <c r="AE13" s="13" t="s">
+      <c r="U13" s="16"/>
+      <c r="V13" s="16"/>
+      <c r="W13" s="16"/>
+      <c r="X13" s="16"/>
+      <c r="Y13" s="16"/>
+      <c r="Z13" s="16"/>
+      <c r="AA13" s="16"/>
+      <c r="AB13" s="17"/>
+      <c r="AE13" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="AF13" s="14"/>
-      <c r="AG13" s="25" t="s">
+      <c r="AF13" s="19"/>
+      <c r="AG13" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="AH13" s="25"/>
-      <c r="AI13" s="25"/>
-      <c r="AJ13" s="25"/>
-      <c r="AK13" s="25"/>
-      <c r="AL13" s="25"/>
-      <c r="AM13" s="26"/>
+      <c r="AH13" s="38"/>
+      <c r="AI13" s="38"/>
+      <c r="AJ13" s="38"/>
+      <c r="AK13" s="38"/>
+      <c r="AL13" s="38"/>
+      <c r="AM13" s="39"/>
     </row>
     <row r="14" spans="3:43" x14ac:dyDescent="0.2">
-      <c r="C14" s="13"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="40" t="s">
+      <c r="C14" s="18"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="F14" s="40"/>
-      <c r="G14" s="40"/>
-      <c r="H14" s="40"/>
-      <c r="I14" s="40"/>
-      <c r="J14" s="40"/>
-      <c r="K14" s="42"/>
+      <c r="F14" s="34"/>
+      <c r="G14" s="34"/>
+      <c r="H14" s="34"/>
+      <c r="I14" s="34"/>
+      <c r="J14" s="34"/>
+      <c r="K14" s="35"/>
       <c r="R14" s="7"/>
-      <c r="T14" s="13" t="s">
+      <c r="T14" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="U14" s="14"/>
-      <c r="V14" s="25" t="s">
+      <c r="U14" s="19"/>
+      <c r="V14" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="W14" s="25"/>
-      <c r="X14" s="25"/>
-      <c r="Y14" s="25"/>
-      <c r="Z14" s="25"/>
-      <c r="AA14" s="25"/>
-      <c r="AB14" s="26"/>
+      <c r="W14" s="38"/>
+      <c r="X14" s="38"/>
+      <c r="Y14" s="38"/>
+      <c r="Z14" s="38"/>
+      <c r="AA14" s="38"/>
+      <c r="AB14" s="39"/>
       <c r="AC14" s="4"/>
       <c r="AD14" s="6"/>
-      <c r="AE14" s="13"/>
-      <c r="AF14" s="14"/>
-      <c r="AG14" s="40" t="s">
+      <c r="AE14" s="18"/>
+      <c r="AF14" s="19"/>
+      <c r="AG14" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="AH14" s="40"/>
-      <c r="AI14" s="40"/>
-      <c r="AJ14" s="40"/>
-      <c r="AK14" s="40"/>
-      <c r="AL14" s="40"/>
-      <c r="AM14" s="42"/>
+      <c r="AH14" s="34"/>
+      <c r="AI14" s="34"/>
+      <c r="AJ14" s="34"/>
+      <c r="AK14" s="34"/>
+      <c r="AL14" s="34"/>
+      <c r="AM14" s="35"/>
     </row>
     <row r="15" spans="3:43" x14ac:dyDescent="0.2">
-      <c r="C15" s="17"/>
-      <c r="D15" s="18"/>
-      <c r="E15" s="37" t="s">
+      <c r="C15" s="11"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="F15" s="37"/>
-      <c r="G15" s="37"/>
-      <c r="H15" s="37"/>
-      <c r="I15" s="37"/>
-      <c r="J15" s="37"/>
-      <c r="K15" s="38"/>
+      <c r="F15" s="36"/>
+      <c r="G15" s="36"/>
+      <c r="H15" s="36"/>
+      <c r="I15" s="36"/>
+      <c r="J15" s="36"/>
+      <c r="K15" s="37"/>
       <c r="R15" s="7"/>
-      <c r="T15" s="13" t="s">
+      <c r="T15" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="U15" s="14"/>
-      <c r="V15" s="40" t="s">
+      <c r="U15" s="19"/>
+      <c r="V15" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="W15" s="40"/>
-      <c r="X15" s="40"/>
-      <c r="Y15" s="40"/>
-      <c r="Z15" s="40"/>
-      <c r="AA15" s="40"/>
-      <c r="AB15" s="42"/>
-      <c r="AE15" s="13"/>
-      <c r="AF15" s="14"/>
-      <c r="AG15" s="40" t="s">
+      <c r="W15" s="34"/>
+      <c r="X15" s="34"/>
+      <c r="Y15" s="34"/>
+      <c r="Z15" s="34"/>
+      <c r="AA15" s="34"/>
+      <c r="AB15" s="35"/>
+      <c r="AE15" s="18"/>
+      <c r="AF15" s="19"/>
+      <c r="AG15" s="34" t="s">
         <v>37</v>
       </c>
-      <c r="AH15" s="40"/>
-      <c r="AI15" s="40"/>
-      <c r="AJ15" s="40"/>
-      <c r="AK15" s="40"/>
-      <c r="AL15" s="40"/>
-      <c r="AM15" s="42"/>
+      <c r="AH15" s="34"/>
+      <c r="AI15" s="34"/>
+      <c r="AJ15" s="34"/>
+      <c r="AK15" s="34"/>
+      <c r="AL15" s="34"/>
+      <c r="AM15" s="35"/>
       <c r="AN15" s="8"/>
       <c r="AO15" s="8"/>
       <c r="AP15" s="8"/>
@@ -1907,28 +1910,28 @@
     </row>
     <row r="16" spans="3:43" x14ac:dyDescent="0.2">
       <c r="R16" s="7"/>
-      <c r="T16" s="17"/>
-      <c r="U16" s="18"/>
-      <c r="V16" s="37" t="s">
+      <c r="T16" s="11"/>
+      <c r="U16" s="12"/>
+      <c r="V16" s="36" t="s">
         <v>48</v>
       </c>
-      <c r="W16" s="37"/>
-      <c r="X16" s="37"/>
-      <c r="Y16" s="37"/>
-      <c r="Z16" s="37"/>
-      <c r="AA16" s="37"/>
-      <c r="AB16" s="38"/>
-      <c r="AE16" s="13"/>
-      <c r="AF16" s="14"/>
-      <c r="AG16" s="40" t="s">
+      <c r="W16" s="36"/>
+      <c r="X16" s="36"/>
+      <c r="Y16" s="36"/>
+      <c r="Z16" s="36"/>
+      <c r="AA16" s="36"/>
+      <c r="AB16" s="37"/>
+      <c r="AE16" s="18"/>
+      <c r="AF16" s="19"/>
+      <c r="AG16" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="AH16" s="40"/>
-      <c r="AI16" s="40"/>
-      <c r="AJ16" s="40"/>
-      <c r="AK16" s="40"/>
-      <c r="AL16" s="40"/>
-      <c r="AM16" s="42"/>
+      <c r="AH16" s="34"/>
+      <c r="AI16" s="34"/>
+      <c r="AJ16" s="34"/>
+      <c r="AK16" s="34"/>
+      <c r="AL16" s="34"/>
+      <c r="AM16" s="35"/>
       <c r="AN16" s="8"/>
       <c r="AO16" s="8"/>
       <c r="AP16" s="8"/>
@@ -1936,190 +1939,190 @@
     </row>
     <row r="17" spans="3:43" x14ac:dyDescent="0.2">
       <c r="R17" s="4"/>
-      <c r="AE17" s="13"/>
-      <c r="AF17" s="14"/>
-      <c r="AG17" s="40" t="s">
+      <c r="AE17" s="18"/>
+      <c r="AF17" s="19"/>
+      <c r="AG17" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="AH17" s="40"/>
-      <c r="AI17" s="40"/>
-      <c r="AJ17" s="40"/>
-      <c r="AK17" s="40"/>
-      <c r="AL17" s="40"/>
-      <c r="AM17" s="42"/>
+      <c r="AH17" s="34"/>
+      <c r="AI17" s="34"/>
+      <c r="AJ17" s="34"/>
+      <c r="AK17" s="34"/>
+      <c r="AL17" s="34"/>
+      <c r="AM17" s="35"/>
       <c r="AN17" s="8"/>
       <c r="AO17" s="8"/>
       <c r="AP17" s="8"/>
       <c r="AQ17" s="8"/>
     </row>
     <row r="18" spans="3:43" x14ac:dyDescent="0.2">
-      <c r="Q18" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="R18" s="11"/>
-      <c r="S18" s="11"/>
-      <c r="T18" s="11"/>
-      <c r="U18" s="11"/>
-      <c r="V18" s="11"/>
-      <c r="W18" s="11"/>
-      <c r="X18" s="11"/>
-      <c r="Y18" s="12"/>
-      <c r="AE18" s="13"/>
-      <c r="AF18" s="14"/>
-      <c r="AG18" s="40" t="s">
+      <c r="Q18" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="R18" s="16"/>
+      <c r="S18" s="16"/>
+      <c r="T18" s="16"/>
+      <c r="U18" s="16"/>
+      <c r="V18" s="16"/>
+      <c r="W18" s="16"/>
+      <c r="X18" s="16"/>
+      <c r="Y18" s="17"/>
+      <c r="AE18" s="18"/>
+      <c r="AF18" s="19"/>
+      <c r="AG18" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="AH18" s="40"/>
-      <c r="AI18" s="40"/>
-      <c r="AJ18" s="40"/>
-      <c r="AK18" s="40"/>
-      <c r="AL18" s="40"/>
-      <c r="AM18" s="42"/>
+      <c r="AH18" s="34"/>
+      <c r="AI18" s="34"/>
+      <c r="AJ18" s="34"/>
+      <c r="AK18" s="34"/>
+      <c r="AL18" s="34"/>
+      <c r="AM18" s="35"/>
       <c r="AN18" s="8"/>
       <c r="AO18" s="8"/>
       <c r="AP18" s="8"/>
       <c r="AQ18" s="8"/>
     </row>
     <row r="19" spans="3:43" x14ac:dyDescent="0.2">
-      <c r="Q19" s="13" t="s">
+      <c r="Q19" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="R19" s="14"/>
-      <c r="S19" s="25" t="s">
+      <c r="R19" s="19"/>
+      <c r="S19" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="T19" s="25"/>
-      <c r="U19" s="25"/>
-      <c r="V19" s="25"/>
-      <c r="W19" s="25"/>
-      <c r="X19" s="25"/>
-      <c r="Y19" s="26"/>
-      <c r="AE19" s="13"/>
-      <c r="AF19" s="14"/>
-      <c r="AG19" s="40" t="s">
+      <c r="T19" s="38"/>
+      <c r="U19" s="38"/>
+      <c r="V19" s="38"/>
+      <c r="W19" s="38"/>
+      <c r="X19" s="38"/>
+      <c r="Y19" s="39"/>
+      <c r="AE19" s="18"/>
+      <c r="AF19" s="19"/>
+      <c r="AG19" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="AH19" s="40"/>
-      <c r="AI19" s="40"/>
-      <c r="AJ19" s="40"/>
-      <c r="AK19" s="40"/>
-      <c r="AL19" s="40"/>
-      <c r="AM19" s="42"/>
+      <c r="AH19" s="34"/>
+      <c r="AI19" s="34"/>
+      <c r="AJ19" s="34"/>
+      <c r="AK19" s="34"/>
+      <c r="AL19" s="34"/>
+      <c r="AM19" s="35"/>
       <c r="AN19" s="8"/>
       <c r="AO19" s="8"/>
       <c r="AP19" s="8"/>
       <c r="AQ19" s="8"/>
     </row>
     <row r="20" spans="3:43" x14ac:dyDescent="0.2">
-      <c r="C20" s="10" t="s">
+      <c r="C20" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="D20" s="11"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="11"/>
-      <c r="H20" s="11"/>
-      <c r="I20" s="11"/>
-      <c r="J20" s="11"/>
-      <c r="K20" s="12"/>
-      <c r="Q20" s="13" t="s">
+      <c r="D20" s="16"/>
+      <c r="E20" s="16"/>
+      <c r="F20" s="16"/>
+      <c r="G20" s="16"/>
+      <c r="H20" s="16"/>
+      <c r="I20" s="16"/>
+      <c r="J20" s="16"/>
+      <c r="K20" s="17"/>
+      <c r="Q20" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="R20" s="14"/>
-      <c r="S20" s="40" t="s">
+      <c r="R20" s="19"/>
+      <c r="S20" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="T20" s="40"/>
-      <c r="U20" s="40"/>
-      <c r="V20" s="40"/>
-      <c r="W20" s="40"/>
-      <c r="X20" s="40"/>
-      <c r="Y20" s="42"/>
-      <c r="AE20" s="13"/>
-      <c r="AF20" s="14"/>
-      <c r="AG20" s="40" t="s">
+      <c r="T20" s="34"/>
+      <c r="U20" s="34"/>
+      <c r="V20" s="34"/>
+      <c r="W20" s="34"/>
+      <c r="X20" s="34"/>
+      <c r="Y20" s="35"/>
+      <c r="AE20" s="18"/>
+      <c r="AF20" s="19"/>
+      <c r="AG20" s="34" t="s">
         <v>42</v>
       </c>
-      <c r="AH20" s="40"/>
-      <c r="AI20" s="40"/>
-      <c r="AJ20" s="40"/>
-      <c r="AK20" s="40"/>
-      <c r="AL20" s="40"/>
-      <c r="AM20" s="42"/>
+      <c r="AH20" s="34"/>
+      <c r="AI20" s="34"/>
+      <c r="AJ20" s="34"/>
+      <c r="AK20" s="34"/>
+      <c r="AL20" s="34"/>
+      <c r="AM20" s="35"/>
       <c r="AN20" s="8"/>
       <c r="AO20" s="8"/>
       <c r="AP20" s="8"/>
       <c r="AQ20" s="8"/>
     </row>
     <row r="21" spans="3:43" x14ac:dyDescent="0.2">
-      <c r="C21" s="13" t="s">
+      <c r="C21" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="D21" s="14"/>
-      <c r="E21" s="25" t="s">
+      <c r="D21" s="19"/>
+      <c r="E21" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="F21" s="25"/>
-      <c r="G21" s="25"/>
-      <c r="H21" s="25"/>
-      <c r="I21" s="25"/>
-      <c r="J21" s="25"/>
-      <c r="K21" s="26"/>
-      <c r="Q21" s="13" t="s">
+      <c r="F21" s="38"/>
+      <c r="G21" s="38"/>
+      <c r="H21" s="38"/>
+      <c r="I21" s="38"/>
+      <c r="J21" s="38"/>
+      <c r="K21" s="39"/>
+      <c r="Q21" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="R21" s="14"/>
-      <c r="S21" s="40" t="s">
+      <c r="R21" s="19"/>
+      <c r="S21" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="T21" s="40"/>
-      <c r="U21" s="40"/>
-      <c r="V21" s="40"/>
-      <c r="W21" s="40"/>
-      <c r="X21" s="40"/>
-      <c r="Y21" s="42"/>
-      <c r="AE21" s="17"/>
-      <c r="AF21" s="18"/>
-      <c r="AG21" s="37" t="s">
+      <c r="T21" s="34"/>
+      <c r="U21" s="34"/>
+      <c r="V21" s="34"/>
+      <c r="W21" s="34"/>
+      <c r="X21" s="34"/>
+      <c r="Y21" s="35"/>
+      <c r="AE21" s="11"/>
+      <c r="AF21" s="12"/>
+      <c r="AG21" s="36" t="s">
         <v>43</v>
       </c>
-      <c r="AH21" s="37"/>
-      <c r="AI21" s="37"/>
-      <c r="AJ21" s="37"/>
-      <c r="AK21" s="37"/>
-      <c r="AL21" s="37"/>
-      <c r="AM21" s="38"/>
+      <c r="AH21" s="36"/>
+      <c r="AI21" s="36"/>
+      <c r="AJ21" s="36"/>
+      <c r="AK21" s="36"/>
+      <c r="AL21" s="36"/>
+      <c r="AM21" s="37"/>
     </row>
     <row r="22" spans="3:43" x14ac:dyDescent="0.2">
-      <c r="C22" s="13" t="s">
+      <c r="C22" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="D22" s="14"/>
-      <c r="E22" s="40" t="s">
+      <c r="D22" s="19"/>
+      <c r="E22" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="F22" s="40"/>
-      <c r="G22" s="40"/>
-      <c r="H22" s="40"/>
-      <c r="I22" s="40"/>
-      <c r="J22" s="40"/>
-      <c r="K22" s="42"/>
+      <c r="F22" s="34"/>
+      <c r="G22" s="34"/>
+      <c r="H22" s="34"/>
+      <c r="I22" s="34"/>
+      <c r="J22" s="34"/>
+      <c r="K22" s="35"/>
       <c r="L22" s="8"/>
       <c r="M22" s="8"/>
       <c r="N22" s="8"/>
       <c r="O22" s="8"/>
       <c r="P22" s="8"/>
-      <c r="Q22" s="13"/>
-      <c r="R22" s="14"/>
-      <c r="S22" s="40" t="s">
+      <c r="Q22" s="18"/>
+      <c r="R22" s="19"/>
+      <c r="S22" s="34" t="s">
         <v>49</v>
       </c>
-      <c r="T22" s="40"/>
-      <c r="U22" s="40"/>
-      <c r="V22" s="40"/>
-      <c r="W22" s="40"/>
-      <c r="X22" s="40"/>
-      <c r="Y22" s="42"/>
+      <c r="T22" s="34"/>
+      <c r="U22" s="34"/>
+      <c r="V22" s="34"/>
+      <c r="W22" s="34"/>
+      <c r="X22" s="34"/>
+      <c r="Y22" s="35"/>
       <c r="Z22" s="8"/>
       <c r="AA22" s="8"/>
       <c r="AB22" s="8"/>
@@ -2134,28 +2137,28 @@
       <c r="AK22" s="1"/>
     </row>
     <row r="23" spans="3:43" x14ac:dyDescent="0.2">
-      <c r="C23" s="13"/>
-      <c r="D23" s="14"/>
-      <c r="E23" s="40" t="s">
+      <c r="C23" s="18"/>
+      <c r="D23" s="19"/>
+      <c r="E23" s="34" t="s">
         <v>58</v>
       </c>
-      <c r="F23" s="40"/>
-      <c r="G23" s="40"/>
-      <c r="H23" s="40"/>
-      <c r="I23" s="40"/>
-      <c r="J23" s="40"/>
-      <c r="K23" s="42"/>
-      <c r="Q23" s="13"/>
-      <c r="R23" s="14"/>
-      <c r="S23" s="40" t="s">
+      <c r="F23" s="34"/>
+      <c r="G23" s="34"/>
+      <c r="H23" s="34"/>
+      <c r="I23" s="34"/>
+      <c r="J23" s="34"/>
+      <c r="K23" s="35"/>
+      <c r="Q23" s="18"/>
+      <c r="R23" s="19"/>
+      <c r="S23" s="34" t="s">
         <v>50</v>
       </c>
-      <c r="T23" s="40"/>
-      <c r="U23" s="40"/>
-      <c r="V23" s="40"/>
-      <c r="W23" s="40"/>
-      <c r="X23" s="40"/>
-      <c r="Y23" s="42"/>
+      <c r="T23" s="34"/>
+      <c r="U23" s="34"/>
+      <c r="V23" s="34"/>
+      <c r="W23" s="34"/>
+      <c r="X23" s="34"/>
+      <c r="Y23" s="35"/>
       <c r="Z23" s="8"/>
       <c r="AA23" s="8"/>
       <c r="AB23" s="8"/>
@@ -2170,28 +2173,28 @@
       <c r="AK23" s="4"/>
     </row>
     <row r="24" spans="3:43" x14ac:dyDescent="0.2">
-      <c r="C24" s="13"/>
-      <c r="D24" s="14"/>
-      <c r="E24" s="40" t="s">
+      <c r="C24" s="18"/>
+      <c r="D24" s="19"/>
+      <c r="E24" s="34" t="s">
         <v>59</v>
       </c>
-      <c r="F24" s="40"/>
-      <c r="G24" s="40"/>
-      <c r="H24" s="40"/>
-      <c r="I24" s="40"/>
-      <c r="J24" s="40"/>
-      <c r="K24" s="42"/>
-      <c r="Q24" s="13"/>
-      <c r="R24" s="14"/>
-      <c r="S24" s="40" t="s">
+      <c r="F24" s="34"/>
+      <c r="G24" s="34"/>
+      <c r="H24" s="34"/>
+      <c r="I24" s="34"/>
+      <c r="J24" s="34"/>
+      <c r="K24" s="35"/>
+      <c r="Q24" s="18"/>
+      <c r="R24" s="19"/>
+      <c r="S24" s="34" t="s">
         <v>51</v>
       </c>
-      <c r="T24" s="40"/>
-      <c r="U24" s="40"/>
-      <c r="V24" s="40"/>
-      <c r="W24" s="40"/>
-      <c r="X24" s="40"/>
-      <c r="Y24" s="42"/>
+      <c r="T24" s="34"/>
+      <c r="U24" s="34"/>
+      <c r="V24" s="34"/>
+      <c r="W24" s="34"/>
+      <c r="X24" s="34"/>
+      <c r="Y24" s="35"/>
       <c r="Z24" s="1"/>
       <c r="AA24" s="3"/>
       <c r="AB24" s="7"/>
@@ -2200,41 +2203,41 @@
       <c r="AE24" s="8"/>
       <c r="AF24" s="7"/>
       <c r="AG24" s="8"/>
-      <c r="AH24" s="10" t="s">
+      <c r="AH24" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="AI24" s="11"/>
-      <c r="AJ24" s="11"/>
-      <c r="AK24" s="11"/>
-      <c r="AL24" s="11"/>
-      <c r="AM24" s="11"/>
-      <c r="AN24" s="11"/>
-      <c r="AO24" s="11"/>
-      <c r="AP24" s="12"/>
+      <c r="AI24" s="16"/>
+      <c r="AJ24" s="16"/>
+      <c r="AK24" s="16"/>
+      <c r="AL24" s="16"/>
+      <c r="AM24" s="16"/>
+      <c r="AN24" s="16"/>
+      <c r="AO24" s="16"/>
+      <c r="AP24" s="17"/>
     </row>
     <row r="25" spans="3:43" x14ac:dyDescent="0.2">
-      <c r="C25" s="13"/>
-      <c r="D25" s="14"/>
-      <c r="E25" s="40" t="s">
+      <c r="C25" s="18"/>
+      <c r="D25" s="19"/>
+      <c r="E25" s="34" t="s">
         <v>60</v>
       </c>
-      <c r="F25" s="40"/>
-      <c r="G25" s="40"/>
-      <c r="H25" s="40"/>
-      <c r="I25" s="40"/>
-      <c r="J25" s="40"/>
-      <c r="K25" s="42"/>
-      <c r="Q25" s="13"/>
-      <c r="R25" s="14"/>
-      <c r="S25" s="40" t="s">
+      <c r="F25" s="34"/>
+      <c r="G25" s="34"/>
+      <c r="H25" s="34"/>
+      <c r="I25" s="34"/>
+      <c r="J25" s="34"/>
+      <c r="K25" s="35"/>
+      <c r="Q25" s="18"/>
+      <c r="R25" s="19"/>
+      <c r="S25" s="34" t="s">
         <v>52</v>
       </c>
-      <c r="T25" s="40"/>
-      <c r="U25" s="40"/>
-      <c r="V25" s="40"/>
-      <c r="W25" s="40"/>
-      <c r="X25" s="40"/>
-      <c r="Y25" s="42"/>
+      <c r="T25" s="34"/>
+      <c r="U25" s="34"/>
+      <c r="V25" s="34"/>
+      <c r="W25" s="34"/>
+      <c r="X25" s="34"/>
+      <c r="Y25" s="35"/>
       <c r="Z25" s="8"/>
       <c r="AA25" s="8"/>
       <c r="AB25" s="7"/>
@@ -2243,43 +2246,43 @@
       <c r="AE25" s="8"/>
       <c r="AF25" s="7"/>
       <c r="AG25" s="8"/>
-      <c r="AH25" s="13" t="s">
+      <c r="AH25" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="AI25" s="14"/>
-      <c r="AJ25" s="25" t="s">
+      <c r="AI25" s="19"/>
+      <c r="AJ25" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="AK25" s="25"/>
-      <c r="AL25" s="25"/>
-      <c r="AM25" s="25"/>
-      <c r="AN25" s="25"/>
-      <c r="AO25" s="25"/>
-      <c r="AP25" s="26"/>
+      <c r="AK25" s="38"/>
+      <c r="AL25" s="38"/>
+      <c r="AM25" s="38"/>
+      <c r="AN25" s="38"/>
+      <c r="AO25" s="38"/>
+      <c r="AP25" s="39"/>
     </row>
     <row r="26" spans="3:43" x14ac:dyDescent="0.2">
-      <c r="C26" s="13"/>
-      <c r="D26" s="14"/>
-      <c r="E26" s="40" t="s">
+      <c r="C26" s="18"/>
+      <c r="D26" s="19"/>
+      <c r="E26" s="34" t="s">
         <v>61</v>
       </c>
-      <c r="F26" s="40"/>
-      <c r="G26" s="40"/>
-      <c r="H26" s="40"/>
-      <c r="I26" s="40"/>
-      <c r="J26" s="40"/>
-      <c r="K26" s="42"/>
-      <c r="Q26" s="13"/>
-      <c r="R26" s="14"/>
-      <c r="S26" s="40" t="s">
+      <c r="F26" s="34"/>
+      <c r="G26" s="34"/>
+      <c r="H26" s="34"/>
+      <c r="I26" s="34"/>
+      <c r="J26" s="34"/>
+      <c r="K26" s="35"/>
+      <c r="Q26" s="18"/>
+      <c r="R26" s="19"/>
+      <c r="S26" s="34" t="s">
         <v>57</v>
       </c>
-      <c r="T26" s="40"/>
-      <c r="U26" s="40"/>
-      <c r="V26" s="40"/>
-      <c r="W26" s="40"/>
-      <c r="X26" s="40"/>
-      <c r="Y26" s="42"/>
+      <c r="T26" s="34"/>
+      <c r="U26" s="34"/>
+      <c r="V26" s="34"/>
+      <c r="W26" s="34"/>
+      <c r="X26" s="34"/>
+      <c r="Y26" s="35"/>
       <c r="Z26" s="8"/>
       <c r="AA26" s="8"/>
       <c r="AB26" s="7"/>
@@ -2288,43 +2291,43 @@
       <c r="AE26" s="8"/>
       <c r="AF26" s="7"/>
       <c r="AG26" s="8"/>
-      <c r="AH26" s="41" t="s">
+      <c r="AH26" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="AI26" s="39"/>
-      <c r="AJ26" s="40" t="s">
+      <c r="AI26" s="41"/>
+      <c r="AJ26" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="AK26" s="40"/>
-      <c r="AL26" s="40"/>
-      <c r="AM26" s="40"/>
-      <c r="AN26" s="40"/>
-      <c r="AO26" s="40"/>
-      <c r="AP26" s="42"/>
+      <c r="AK26" s="34"/>
+      <c r="AL26" s="34"/>
+      <c r="AM26" s="34"/>
+      <c r="AN26" s="34"/>
+      <c r="AO26" s="34"/>
+      <c r="AP26" s="35"/>
     </row>
     <row r="27" spans="3:43" x14ac:dyDescent="0.2">
-      <c r="C27" s="13"/>
-      <c r="D27" s="14"/>
-      <c r="E27" s="40" t="s">
+      <c r="C27" s="18"/>
+      <c r="D27" s="19"/>
+      <c r="E27" s="34" t="s">
         <v>62</v>
       </c>
-      <c r="F27" s="40"/>
-      <c r="G27" s="40"/>
-      <c r="H27" s="40"/>
-      <c r="I27" s="40"/>
-      <c r="J27" s="40"/>
-      <c r="K27" s="42"/>
-      <c r="Q27" s="17"/>
-      <c r="R27" s="18"/>
-      <c r="S27" s="37" t="s">
+      <c r="F27" s="34"/>
+      <c r="G27" s="34"/>
+      <c r="H27" s="34"/>
+      <c r="I27" s="34"/>
+      <c r="J27" s="34"/>
+      <c r="K27" s="35"/>
+      <c r="Q27" s="11"/>
+      <c r="R27" s="12"/>
+      <c r="S27" s="36" t="s">
         <v>53</v>
       </c>
-      <c r="T27" s="37"/>
-      <c r="U27" s="37"/>
-      <c r="V27" s="37"/>
-      <c r="W27" s="37"/>
-      <c r="X27" s="37"/>
-      <c r="Y27" s="38"/>
+      <c r="T27" s="36"/>
+      <c r="U27" s="36"/>
+      <c r="V27" s="36"/>
+      <c r="W27" s="36"/>
+      <c r="X27" s="36"/>
+      <c r="Y27" s="37"/>
       <c r="Z27" s="8"/>
       <c r="AA27" s="8"/>
       <c r="AB27" s="7"/>
@@ -2333,30 +2336,30 @@
       <c r="AE27" s="8"/>
       <c r="AF27" s="7"/>
       <c r="AG27" s="8"/>
-      <c r="AH27" s="41"/>
-      <c r="AI27" s="39"/>
-      <c r="AJ27" s="40" t="s">
+      <c r="AH27" s="40"/>
+      <c r="AI27" s="41"/>
+      <c r="AJ27" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="AK27" s="40"/>
-      <c r="AL27" s="40"/>
-      <c r="AM27" s="40"/>
-      <c r="AN27" s="40"/>
-      <c r="AO27" s="40"/>
-      <c r="AP27" s="42"/>
+      <c r="AK27" s="34"/>
+      <c r="AL27" s="34"/>
+      <c r="AM27" s="34"/>
+      <c r="AN27" s="34"/>
+      <c r="AO27" s="34"/>
+      <c r="AP27" s="35"/>
     </row>
     <row r="28" spans="3:43" x14ac:dyDescent="0.2">
-      <c r="C28" s="13"/>
-      <c r="D28" s="14"/>
-      <c r="E28" s="40" t="s">
+      <c r="C28" s="18"/>
+      <c r="D28" s="19"/>
+      <c r="E28" s="34" t="s">
         <v>63</v>
       </c>
-      <c r="F28" s="40"/>
-      <c r="G28" s="40"/>
-      <c r="H28" s="40"/>
-      <c r="I28" s="40"/>
-      <c r="J28" s="40"/>
-      <c r="K28" s="42"/>
+      <c r="F28" s="34"/>
+      <c r="G28" s="34"/>
+      <c r="H28" s="34"/>
+      <c r="I28" s="34"/>
+      <c r="J28" s="34"/>
+      <c r="K28" s="35"/>
       <c r="U28" s="1"/>
       <c r="Z28" s="8"/>
       <c r="AA28" s="8"/>
@@ -2366,309 +2369,388 @@
       <c r="AE28" s="8"/>
       <c r="AF28" s="7"/>
       <c r="AG28" s="8"/>
-      <c r="AH28" s="41"/>
-      <c r="AI28" s="39"/>
-      <c r="AJ28" s="40" t="s">
+      <c r="AH28" s="40"/>
+      <c r="AI28" s="41"/>
+      <c r="AJ28" s="34" t="s">
         <v>45</v>
       </c>
-      <c r="AK28" s="40"/>
-      <c r="AL28" s="40"/>
-      <c r="AM28" s="40"/>
-      <c r="AN28" s="40"/>
-      <c r="AO28" s="40"/>
-      <c r="AP28" s="42"/>
+      <c r="AK28" s="34"/>
+      <c r="AL28" s="34"/>
+      <c r="AM28" s="34"/>
+      <c r="AN28" s="34"/>
+      <c r="AO28" s="34"/>
+      <c r="AP28" s="35"/>
     </row>
     <row r="29" spans="3:43" x14ac:dyDescent="0.2">
-      <c r="C29" s="13"/>
-      <c r="D29" s="14"/>
-      <c r="E29" s="40" t="s">
+      <c r="C29" s="18"/>
+      <c r="D29" s="19"/>
+      <c r="E29" s="34" t="s">
         <v>64</v>
       </c>
-      <c r="F29" s="40"/>
-      <c r="G29" s="40"/>
-      <c r="H29" s="40"/>
-      <c r="I29" s="40"/>
-      <c r="J29" s="40"/>
-      <c r="K29" s="42"/>
+      <c r="F29" s="34"/>
+      <c r="G29" s="34"/>
+      <c r="H29" s="34"/>
+      <c r="I29" s="34"/>
+      <c r="J29" s="34"/>
+      <c r="K29" s="35"/>
       <c r="U29" s="4"/>
       <c r="AB29" s="7"/>
       <c r="AF29" s="7"/>
-      <c r="AH29" s="41"/>
-      <c r="AI29" s="39"/>
-      <c r="AJ29" s="40" t="s">
+      <c r="AH29" s="40"/>
+      <c r="AI29" s="41"/>
+      <c r="AJ29" s="34" t="s">
         <v>46</v>
       </c>
-      <c r="AK29" s="40"/>
-      <c r="AL29" s="40"/>
-      <c r="AM29" s="40"/>
-      <c r="AN29" s="40"/>
-      <c r="AO29" s="40"/>
-      <c r="AP29" s="42"/>
+      <c r="AK29" s="34"/>
+      <c r="AL29" s="34"/>
+      <c r="AM29" s="34"/>
+      <c r="AN29" s="34"/>
+      <c r="AO29" s="34"/>
+      <c r="AP29" s="35"/>
     </row>
     <row r="30" spans="3:43" x14ac:dyDescent="0.2">
-      <c r="C30" s="13"/>
-      <c r="D30" s="14"/>
-      <c r="E30" s="40" t="s">
+      <c r="C30" s="18"/>
+      <c r="D30" s="19"/>
+      <c r="E30" s="34" t="s">
         <v>65</v>
       </c>
-      <c r="F30" s="40"/>
-      <c r="G30" s="40"/>
-      <c r="H30" s="40"/>
-      <c r="I30" s="40"/>
-      <c r="J30" s="40"/>
-      <c r="K30" s="42"/>
-      <c r="Q30" s="10" t="s">
+      <c r="F30" s="34"/>
+      <c r="G30" s="34"/>
+      <c r="H30" s="34"/>
+      <c r="I30" s="34"/>
+      <c r="J30" s="34"/>
+      <c r="K30" s="35"/>
+      <c r="Q30" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="R30" s="11"/>
-      <c r="S30" s="11"/>
-      <c r="T30" s="11"/>
-      <c r="U30" s="11"/>
-      <c r="V30" s="11"/>
-      <c r="W30" s="11"/>
-      <c r="X30" s="11"/>
-      <c r="Y30" s="12"/>
+      <c r="R30" s="16"/>
+      <c r="S30" s="16"/>
+      <c r="T30" s="16"/>
+      <c r="U30" s="16"/>
+      <c r="V30" s="16"/>
+      <c r="W30" s="16"/>
+      <c r="X30" s="16"/>
+      <c r="Y30" s="17"/>
       <c r="AB30" s="7"/>
       <c r="AF30" s="7"/>
-      <c r="AH30" s="35" t="s">
+      <c r="AH30" s="42" t="s">
         <v>47</v>
       </c>
-      <c r="AI30" s="36"/>
-      <c r="AJ30" s="37" t="s">
+      <c r="AI30" s="43"/>
+      <c r="AJ30" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="AK30" s="37"/>
-      <c r="AL30" s="37"/>
-      <c r="AM30" s="37"/>
-      <c r="AN30" s="37"/>
-      <c r="AO30" s="37"/>
-      <c r="AP30" s="38"/>
+      <c r="AK30" s="36"/>
+      <c r="AL30" s="36"/>
+      <c r="AM30" s="36"/>
+      <c r="AN30" s="36"/>
+      <c r="AO30" s="36"/>
+      <c r="AP30" s="37"/>
     </row>
     <row r="31" spans="3:43" x14ac:dyDescent="0.2">
-      <c r="C31" s="13"/>
-      <c r="D31" s="14"/>
-      <c r="E31" s="40"/>
-      <c r="F31" s="40"/>
-      <c r="G31" s="40"/>
-      <c r="H31" s="40"/>
-      <c r="I31" s="40"/>
-      <c r="J31" s="40"/>
-      <c r="K31" s="42"/>
-      <c r="Q31" s="13" t="s">
+      <c r="C31" s="18"/>
+      <c r="D31" s="19"/>
+      <c r="E31" s="34"/>
+      <c r="F31" s="34"/>
+      <c r="G31" s="34"/>
+      <c r="H31" s="34"/>
+      <c r="I31" s="34"/>
+      <c r="J31" s="34"/>
+      <c r="K31" s="35"/>
+      <c r="Q31" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="R31" s="14"/>
-      <c r="S31" s="25" t="s">
+      <c r="R31" s="19"/>
+      <c r="S31" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="T31" s="25"/>
-      <c r="U31" s="25"/>
-      <c r="V31" s="25"/>
-      <c r="W31" s="25"/>
-      <c r="X31" s="25"/>
-      <c r="Y31" s="26"/>
+      <c r="T31" s="38"/>
+      <c r="U31" s="38"/>
+      <c r="V31" s="38"/>
+      <c r="W31" s="38"/>
+      <c r="X31" s="38"/>
+      <c r="Y31" s="39"/>
       <c r="AB31" s="7"/>
       <c r="AF31" s="7"/>
     </row>
     <row r="32" spans="3:43" x14ac:dyDescent="0.2">
-      <c r="C32" s="13"/>
-      <c r="D32" s="14"/>
-      <c r="E32" s="40"/>
-      <c r="F32" s="40"/>
-      <c r="G32" s="40"/>
-      <c r="H32" s="40"/>
-      <c r="I32" s="40"/>
-      <c r="J32" s="40"/>
-      <c r="K32" s="42"/>
-      <c r="Q32" s="13" t="s">
+      <c r="C32" s="18"/>
+      <c r="D32" s="19"/>
+      <c r="E32" s="34"/>
+      <c r="F32" s="34"/>
+      <c r="G32" s="34"/>
+      <c r="H32" s="34"/>
+      <c r="I32" s="34"/>
+      <c r="J32" s="34"/>
+      <c r="K32" s="35"/>
+      <c r="Q32" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="R32" s="14"/>
-      <c r="S32" s="40" t="s">
+      <c r="R32" s="19"/>
+      <c r="S32" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="T32" s="40"/>
-      <c r="U32" s="40"/>
-      <c r="V32" s="40"/>
-      <c r="W32" s="40"/>
-      <c r="X32" s="40"/>
-      <c r="Y32" s="42"/>
+      <c r="T32" s="34"/>
+      <c r="U32" s="34"/>
+      <c r="V32" s="34"/>
+      <c r="W32" s="34"/>
+      <c r="X32" s="34"/>
+      <c r="Y32" s="35"/>
       <c r="AB32" s="7"/>
       <c r="AF32" s="4"/>
     </row>
     <row r="33" spans="3:37" x14ac:dyDescent="0.2">
-      <c r="C33" s="13"/>
-      <c r="D33" s="14"/>
-      <c r="E33" s="40"/>
-      <c r="F33" s="40"/>
-      <c r="G33" s="40"/>
-      <c r="H33" s="40"/>
-      <c r="I33" s="40"/>
-      <c r="J33" s="40"/>
-      <c r="K33" s="42"/>
+      <c r="C33" s="18"/>
+      <c r="D33" s="19"/>
+      <c r="E33" s="34"/>
+      <c r="F33" s="34"/>
+      <c r="G33" s="34"/>
+      <c r="H33" s="34"/>
+      <c r="I33" s="34"/>
+      <c r="J33" s="34"/>
+      <c r="K33" s="35"/>
       <c r="L33" s="2"/>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
       <c r="P33" s="3"/>
-      <c r="Q33" s="13"/>
-      <c r="R33" s="14"/>
-      <c r="S33" s="40" t="s">
+      <c r="Q33" s="18"/>
+      <c r="R33" s="19"/>
+      <c r="S33" s="34" t="s">
         <v>49</v>
       </c>
-      <c r="T33" s="40"/>
-      <c r="U33" s="40"/>
-      <c r="V33" s="40"/>
-      <c r="W33" s="40"/>
-      <c r="X33" s="40"/>
-      <c r="Y33" s="42"/>
+      <c r="T33" s="34"/>
+      <c r="U33" s="34"/>
+      <c r="V33" s="34"/>
+      <c r="W33" s="34"/>
+      <c r="X33" s="34"/>
+      <c r="Y33" s="35"/>
       <c r="AB33" s="4"/>
-      <c r="AC33" s="10" t="s">
+      <c r="AC33" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="AD33" s="11"/>
-      <c r="AE33" s="11"/>
-      <c r="AF33" s="11"/>
-      <c r="AG33" s="11"/>
-      <c r="AH33" s="11"/>
-      <c r="AI33" s="11"/>
-      <c r="AJ33" s="11"/>
-      <c r="AK33" s="12"/>
+      <c r="AD33" s="16"/>
+      <c r="AE33" s="16"/>
+      <c r="AF33" s="16"/>
+      <c r="AG33" s="16"/>
+      <c r="AH33" s="16"/>
+      <c r="AI33" s="16"/>
+      <c r="AJ33" s="16"/>
+      <c r="AK33" s="17"/>
     </row>
     <row r="34" spans="3:37" x14ac:dyDescent="0.2">
-      <c r="C34" s="13"/>
-      <c r="D34" s="14"/>
-      <c r="E34" s="40"/>
-      <c r="F34" s="40"/>
-      <c r="G34" s="40"/>
-      <c r="H34" s="40"/>
-      <c r="I34" s="40"/>
-      <c r="J34" s="40"/>
-      <c r="K34" s="42"/>
-      <c r="Q34" s="13"/>
-      <c r="R34" s="14"/>
-      <c r="S34" s="40" t="s">
+      <c r="C34" s="18"/>
+      <c r="D34" s="19"/>
+      <c r="E34" s="34"/>
+      <c r="F34" s="34"/>
+      <c r="G34" s="34"/>
+      <c r="H34" s="34"/>
+      <c r="I34" s="34"/>
+      <c r="J34" s="34"/>
+      <c r="K34" s="35"/>
+      <c r="Q34" s="18"/>
+      <c r="R34" s="19"/>
+      <c r="S34" s="34" t="s">
         <v>54</v>
       </c>
-      <c r="T34" s="40"/>
-      <c r="U34" s="40"/>
-      <c r="V34" s="40"/>
-      <c r="W34" s="40"/>
-      <c r="X34" s="40"/>
-      <c r="Y34" s="42"/>
-      <c r="AC34" s="13" t="s">
+      <c r="T34" s="34"/>
+      <c r="U34" s="34"/>
+      <c r="V34" s="34"/>
+      <c r="W34" s="34"/>
+      <c r="X34" s="34"/>
+      <c r="Y34" s="35"/>
+      <c r="AC34" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="AD34" s="14"/>
-      <c r="AE34" s="25" t="s">
+      <c r="AD34" s="19"/>
+      <c r="AE34" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="AF34" s="25"/>
-      <c r="AG34" s="25"/>
-      <c r="AH34" s="25"/>
-      <c r="AI34" s="25"/>
-      <c r="AJ34" s="25"/>
-      <c r="AK34" s="26"/>
+      <c r="AF34" s="38"/>
+      <c r="AG34" s="38"/>
+      <c r="AH34" s="38"/>
+      <c r="AI34" s="38"/>
+      <c r="AJ34" s="38"/>
+      <c r="AK34" s="39"/>
     </row>
     <row r="35" spans="3:37" x14ac:dyDescent="0.2">
-      <c r="C35" s="13"/>
-      <c r="D35" s="14"/>
-      <c r="E35" s="40"/>
-      <c r="F35" s="40"/>
-      <c r="G35" s="40"/>
-      <c r="H35" s="40"/>
-      <c r="I35" s="40"/>
-      <c r="J35" s="40"/>
-      <c r="K35" s="42"/>
-      <c r="Q35" s="13"/>
-      <c r="R35" s="14"/>
-      <c r="S35" s="40" t="s">
+      <c r="C35" s="18"/>
+      <c r="D35" s="19"/>
+      <c r="E35" s="34"/>
+      <c r="F35" s="34"/>
+      <c r="G35" s="34"/>
+      <c r="H35" s="34"/>
+      <c r="I35" s="34"/>
+      <c r="J35" s="34"/>
+      <c r="K35" s="35"/>
+      <c r="Q35" s="18"/>
+      <c r="R35" s="19"/>
+      <c r="S35" s="34" t="s">
         <v>55</v>
       </c>
-      <c r="T35" s="40"/>
-      <c r="U35" s="40"/>
-      <c r="V35" s="40"/>
-      <c r="W35" s="40"/>
-      <c r="X35" s="40"/>
-      <c r="Y35" s="42"/>
-      <c r="AC35" s="17" t="s">
+      <c r="T35" s="34"/>
+      <c r="U35" s="34"/>
+      <c r="V35" s="34"/>
+      <c r="W35" s="34"/>
+      <c r="X35" s="34"/>
+      <c r="Y35" s="35"/>
+      <c r="AC35" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="AD35" s="18"/>
-      <c r="AE35" s="37" t="s">
+      <c r="AD35" s="12"/>
+      <c r="AE35" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="AF35" s="37"/>
-      <c r="AG35" s="37"/>
-      <c r="AH35" s="37"/>
-      <c r="AI35" s="37"/>
-      <c r="AJ35" s="37"/>
-      <c r="AK35" s="38"/>
+      <c r="AF35" s="36"/>
+      <c r="AG35" s="36"/>
+      <c r="AH35" s="36"/>
+      <c r="AI35" s="36"/>
+      <c r="AJ35" s="36"/>
+      <c r="AK35" s="37"/>
     </row>
     <row r="36" spans="3:37" x14ac:dyDescent="0.2">
-      <c r="C36" s="13"/>
-      <c r="D36" s="14"/>
-      <c r="E36" s="40"/>
-      <c r="F36" s="40"/>
-      <c r="G36" s="40"/>
-      <c r="H36" s="40"/>
-      <c r="I36" s="40"/>
-      <c r="J36" s="40"/>
-      <c r="K36" s="42"/>
-      <c r="Q36" s="17"/>
-      <c r="R36" s="18"/>
-      <c r="S36" s="37" t="s">
+      <c r="C36" s="18"/>
+      <c r="D36" s="19"/>
+      <c r="E36" s="34"/>
+      <c r="F36" s="34"/>
+      <c r="G36" s="34"/>
+      <c r="H36" s="34"/>
+      <c r="I36" s="34"/>
+      <c r="J36" s="34"/>
+      <c r="K36" s="35"/>
+      <c r="Q36" s="11"/>
+      <c r="R36" s="12"/>
+      <c r="S36" s="36" t="s">
         <v>56</v>
       </c>
-      <c r="T36" s="37"/>
-      <c r="U36" s="37"/>
-      <c r="V36" s="37"/>
-      <c r="W36" s="37"/>
-      <c r="X36" s="37"/>
-      <c r="Y36" s="38"/>
+      <c r="T36" s="36"/>
+      <c r="U36" s="36"/>
+      <c r="V36" s="36"/>
+      <c r="W36" s="36"/>
+      <c r="X36" s="36"/>
+      <c r="Y36" s="37"/>
     </row>
     <row r="37" spans="3:37" x14ac:dyDescent="0.2">
-      <c r="C37" s="17"/>
-      <c r="D37" s="18"/>
-      <c r="E37" s="37"/>
-      <c r="F37" s="37"/>
-      <c r="G37" s="37"/>
-      <c r="H37" s="37"/>
-      <c r="I37" s="37"/>
-      <c r="J37" s="37"/>
-      <c r="K37" s="38"/>
+      <c r="C37" s="11"/>
+      <c r="D37" s="12"/>
+      <c r="E37" s="36"/>
+      <c r="F37" s="36"/>
+      <c r="G37" s="36"/>
+      <c r="H37" s="36"/>
+      <c r="I37" s="36"/>
+      <c r="J37" s="36"/>
+      <c r="K37" s="37"/>
     </row>
   </sheetData>
   <mergeCells count="156">
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="E36:K36"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="E37:K37"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="E33:K33"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="E34:K34"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="E35:K35"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="E30:K30"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="E31:K31"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="E32:K32"/>
-    <mergeCell ref="Q30:Y30"/>
-    <mergeCell ref="Q34:R34"/>
-    <mergeCell ref="S34:Y34"/>
-    <mergeCell ref="Q35:R35"/>
-    <mergeCell ref="S35:Y35"/>
-    <mergeCell ref="Q36:R36"/>
-    <mergeCell ref="S36:Y36"/>
-    <mergeCell ref="Q31:R31"/>
-    <mergeCell ref="S31:Y31"/>
-    <mergeCell ref="Q32:R32"/>
-    <mergeCell ref="S32:Y32"/>
-    <mergeCell ref="Q33:R33"/>
-    <mergeCell ref="S33:Y33"/>
+    <mergeCell ref="C3:K3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:K4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:K5"/>
+    <mergeCell ref="P8:V8"/>
+    <mergeCell ref="P9:V9"/>
+    <mergeCell ref="P10:V10"/>
+    <mergeCell ref="P11:V11"/>
+    <mergeCell ref="N5:V5"/>
+    <mergeCell ref="N6:O6"/>
+    <mergeCell ref="P6:V6"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="P7:V7"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="E10:K10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E11:K11"/>
+    <mergeCell ref="AG15:AM15"/>
+    <mergeCell ref="AG16:AM16"/>
+    <mergeCell ref="AG17:AM17"/>
+    <mergeCell ref="AG18:AM18"/>
+    <mergeCell ref="E6:K6"/>
+    <mergeCell ref="E7:K7"/>
+    <mergeCell ref="E8:K8"/>
+    <mergeCell ref="E9:K9"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="E15:K15"/>
+    <mergeCell ref="AE12:AM12"/>
+    <mergeCell ref="AE13:AF13"/>
+    <mergeCell ref="AG13:AM13"/>
+    <mergeCell ref="AE14:AF14"/>
+    <mergeCell ref="AG14:AM14"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:K12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E13:K13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="E14:K14"/>
+    <mergeCell ref="AC33:AK33"/>
+    <mergeCell ref="AC34:AD34"/>
+    <mergeCell ref="AE34:AK34"/>
+    <mergeCell ref="AC35:AD35"/>
+    <mergeCell ref="AE35:AK35"/>
+    <mergeCell ref="AE20:AF20"/>
+    <mergeCell ref="AG20:AM20"/>
+    <mergeCell ref="AE21:AF21"/>
+    <mergeCell ref="AG21:AM21"/>
+    <mergeCell ref="AH27:AI27"/>
+    <mergeCell ref="AH28:AI28"/>
+    <mergeCell ref="AH29:AI29"/>
+    <mergeCell ref="AH30:AI30"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="T13:AB13"/>
+    <mergeCell ref="Q18:Y18"/>
+    <mergeCell ref="AH24:AP24"/>
+    <mergeCell ref="AH25:AI25"/>
+    <mergeCell ref="AJ25:AP25"/>
+    <mergeCell ref="AH26:AI26"/>
+    <mergeCell ref="AJ26:AP26"/>
+    <mergeCell ref="AJ27:AP27"/>
+    <mergeCell ref="AJ28:AP28"/>
+    <mergeCell ref="AJ29:AP29"/>
+    <mergeCell ref="AJ30:AP30"/>
+    <mergeCell ref="AE15:AF15"/>
+    <mergeCell ref="AE16:AF16"/>
+    <mergeCell ref="AE17:AF17"/>
+    <mergeCell ref="AE18:AF18"/>
+    <mergeCell ref="AE19:AF19"/>
+    <mergeCell ref="Y6:AG6"/>
+    <mergeCell ref="Y7:Z7"/>
+    <mergeCell ref="AA7:AG7"/>
+    <mergeCell ref="Y8:Z8"/>
+    <mergeCell ref="AA8:AG8"/>
+    <mergeCell ref="Y9:Z9"/>
+    <mergeCell ref="AA9:AG9"/>
+    <mergeCell ref="Q25:R25"/>
+    <mergeCell ref="S25:Y25"/>
+    <mergeCell ref="T14:U14"/>
+    <mergeCell ref="V14:AB14"/>
+    <mergeCell ref="T15:U15"/>
+    <mergeCell ref="V15:AB15"/>
+    <mergeCell ref="T16:U16"/>
+    <mergeCell ref="V16:AB16"/>
+    <mergeCell ref="AG19:AM19"/>
+    <mergeCell ref="Q27:R27"/>
+    <mergeCell ref="S27:Y27"/>
+    <mergeCell ref="Q22:R22"/>
+    <mergeCell ref="S22:Y22"/>
+    <mergeCell ref="Q23:R23"/>
+    <mergeCell ref="S23:Y23"/>
+    <mergeCell ref="Q24:R24"/>
+    <mergeCell ref="S24:Y24"/>
+    <mergeCell ref="Q19:R19"/>
+    <mergeCell ref="S19:Y19"/>
+    <mergeCell ref="Q20:R20"/>
+    <mergeCell ref="S20:Y20"/>
+    <mergeCell ref="Q21:R21"/>
+    <mergeCell ref="S21:Y21"/>
+    <mergeCell ref="Q26:R26"/>
+    <mergeCell ref="S26:Y26"/>
     <mergeCell ref="C20:K20"/>
     <mergeCell ref="C21:D21"/>
     <mergeCell ref="E21:K21"/>
@@ -2688,114 +2770,35 @@
     <mergeCell ref="C23:D23"/>
     <mergeCell ref="E23:K23"/>
     <mergeCell ref="C24:D24"/>
-    <mergeCell ref="Q27:R27"/>
-    <mergeCell ref="S27:Y27"/>
-    <mergeCell ref="Q22:R22"/>
-    <mergeCell ref="S22:Y22"/>
-    <mergeCell ref="Q23:R23"/>
-    <mergeCell ref="S23:Y23"/>
-    <mergeCell ref="Q24:R24"/>
-    <mergeCell ref="S24:Y24"/>
-    <mergeCell ref="Q19:R19"/>
-    <mergeCell ref="S19:Y19"/>
-    <mergeCell ref="Q20:R20"/>
-    <mergeCell ref="S20:Y20"/>
-    <mergeCell ref="Q21:R21"/>
-    <mergeCell ref="S21:Y21"/>
-    <mergeCell ref="Y6:AG6"/>
-    <mergeCell ref="Y7:Z7"/>
-    <mergeCell ref="AA7:AG7"/>
-    <mergeCell ref="Y8:Z8"/>
-    <mergeCell ref="AA8:AG8"/>
-    <mergeCell ref="Y9:Z9"/>
-    <mergeCell ref="AA9:AG9"/>
-    <mergeCell ref="Q25:R25"/>
-    <mergeCell ref="S25:Y25"/>
-    <mergeCell ref="Q26:R26"/>
-    <mergeCell ref="S26:Y26"/>
-    <mergeCell ref="T14:U14"/>
-    <mergeCell ref="V14:AB14"/>
-    <mergeCell ref="T15:U15"/>
-    <mergeCell ref="V15:AB15"/>
-    <mergeCell ref="T16:U16"/>
-    <mergeCell ref="V16:AB16"/>
-    <mergeCell ref="AH27:AI27"/>
-    <mergeCell ref="AH28:AI28"/>
-    <mergeCell ref="AH29:AI29"/>
-    <mergeCell ref="AH30:AI30"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="N9:O9"/>
-    <mergeCell ref="N10:O10"/>
-    <mergeCell ref="N11:O11"/>
-    <mergeCell ref="T13:AB13"/>
-    <mergeCell ref="Q18:Y18"/>
-    <mergeCell ref="AH24:AP24"/>
-    <mergeCell ref="AH25:AI25"/>
-    <mergeCell ref="AJ25:AP25"/>
-    <mergeCell ref="AH26:AI26"/>
-    <mergeCell ref="AJ26:AP26"/>
-    <mergeCell ref="AJ27:AP27"/>
-    <mergeCell ref="AJ28:AP28"/>
-    <mergeCell ref="AJ29:AP29"/>
-    <mergeCell ref="AJ30:AP30"/>
-    <mergeCell ref="AC33:AK33"/>
-    <mergeCell ref="AC34:AD34"/>
-    <mergeCell ref="AE34:AK34"/>
-    <mergeCell ref="AC35:AD35"/>
-    <mergeCell ref="AE35:AK35"/>
-    <mergeCell ref="AE20:AF20"/>
-    <mergeCell ref="AG20:AM20"/>
-    <mergeCell ref="AE21:AF21"/>
-    <mergeCell ref="AG21:AM21"/>
-    <mergeCell ref="AE15:AF15"/>
-    <mergeCell ref="AE16:AF16"/>
-    <mergeCell ref="AE17:AF17"/>
-    <mergeCell ref="AE18:AF18"/>
-    <mergeCell ref="AE19:AF19"/>
-    <mergeCell ref="AG19:AM19"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="E15:K15"/>
-    <mergeCell ref="AE12:AM12"/>
-    <mergeCell ref="AE13:AF13"/>
-    <mergeCell ref="AG13:AM13"/>
-    <mergeCell ref="AE14:AF14"/>
-    <mergeCell ref="AG14:AM14"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E12:K12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="E13:K13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="E14:K14"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="E10:K10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="E11:K11"/>
-    <mergeCell ref="AG15:AM15"/>
-    <mergeCell ref="AG16:AM16"/>
-    <mergeCell ref="AG17:AM17"/>
-    <mergeCell ref="AG18:AM18"/>
-    <mergeCell ref="E6:K6"/>
-    <mergeCell ref="E7:K7"/>
-    <mergeCell ref="E8:K8"/>
-    <mergeCell ref="E9:K9"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E4:K4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:K5"/>
-    <mergeCell ref="P8:V8"/>
-    <mergeCell ref="P9:V9"/>
-    <mergeCell ref="P10:V10"/>
-    <mergeCell ref="P11:V11"/>
-    <mergeCell ref="N5:V5"/>
-    <mergeCell ref="N6:O6"/>
-    <mergeCell ref="P6:V6"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="P7:V7"/>
-    <mergeCell ref="C3:K3"/>
+    <mergeCell ref="Q35:R35"/>
+    <mergeCell ref="S35:Y35"/>
+    <mergeCell ref="Q36:R36"/>
+    <mergeCell ref="S36:Y36"/>
+    <mergeCell ref="Q31:R31"/>
+    <mergeCell ref="S31:Y31"/>
+    <mergeCell ref="Q32:R32"/>
+    <mergeCell ref="S32:Y32"/>
+    <mergeCell ref="Q33:R33"/>
+    <mergeCell ref="S33:Y33"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="E30:K30"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="E31:K31"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="E32:K32"/>
+    <mergeCell ref="Q30:Y30"/>
+    <mergeCell ref="Q34:R34"/>
+    <mergeCell ref="S34:Y34"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="E36:K36"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="E37:K37"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="E33:K33"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="E34:K34"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="E35:K35"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
